--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_25_34.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_25_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1181314.13779468</v>
+        <v>1176808.72722576</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>30176017.85059628</v>
+        <v>30176017.85059626</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7358758.424792553</v>
+        <v>7358758.424792557</v>
       </c>
     </row>
     <row r="9">
@@ -1384,10 +1384,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>398.3228448427254</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>274.6854808033287</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>58.36782720556181</v>
+        <v>58.3678272055618</v>
       </c>
       <c r="T11" t="n">
-        <v>210.080265299677</v>
+        <v>174.149818562495</v>
       </c>
       <c r="U11" t="n">
         <v>255.6135341540542</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>31.08428304516087</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>60.90452502067238</v>
+        <v>60.90452502067237</v>
       </c>
       <c r="T12" t="n">
         <v>136.2065070493723</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>68.82827450562962</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>161.683605144497</v>
@@ -1542,7 +1542,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>19.61108462879799</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>134.4903647118297</v>
@@ -1575,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>6.778005649686243</v>
+        <v>6.778005649686236</v>
       </c>
       <c r="S13" t="n">
-        <v>153.0115670681201</v>
+        <v>153.01156706812</v>
       </c>
       <c r="T13" t="n">
         <v>237.124837410167</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3343344374282</v>
       </c>
       <c r="V13" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>224.0793406271554</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1615,13 +1615,13 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>398.3228448427254</v>
+        <v>39.78175106429669</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1660,22 +1660,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>210.080265299677</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>192.6443487965713</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
         <v>161.683605144497</v>
@@ -1776,10 +1776,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.7094577587503</v>
       </c>
       <c r="H16" t="n">
         <v>134.4903647118297</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>6.778005649686236</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>153.01156706812</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>237.124837410167</v>
@@ -1827,13 +1827,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>154.8309998063991</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.0793406271554</v>
+        <v>190.8931482439389</v>
       </c>
     </row>
     <row r="17">
@@ -1843,19 +1843,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>160.7877013068655</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>419.0596946068497</v>
+        <v>91.98118552993088</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1903,16 +1903,16 @@
         <v>255.6135341540542</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>60.90452502067237</v>
+        <v>60.90452502067238</v>
       </c>
       <c r="T18" t="n">
         <v>136.2065070493723</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2010,16 +2010,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>41.77233599521211</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
         <v>163.7094577587503</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>115.2707902732535</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>6.778005649686236</v>
       </c>
       <c r="S19" t="n">
-        <v>153.01156706812</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>237.124837410167</v>
@@ -2061,7 +2061,7 @@
         <v>277.3343344374282</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>272.1038797892121</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2089,16 +2089,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>212.5199554564735</v>
+        <v>274.6854808033287</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>58.3678272055618</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>210.080265299677</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>255.6135341540542</v>
       </c>
       <c r="V20" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>297.3807023857848</v>
       </c>
     </row>
     <row r="21">
@@ -2241,7 +2241,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>17.21748472901746</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>161.683605144497</v>
@@ -2250,10 +2250,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.7094577587503</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>6.778005649686236</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>153.0115670681201</v>
@@ -2301,13 +2301,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>272.1038797892121</v>
+        <v>186.326096553136</v>
       </c>
       <c r="X22" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2320,13 +2320,13 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>422.3136567440841</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
-        <v>326.1681858336432</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>58.36782720556179</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>210.080265299677</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>255.6135341540542</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="24">
@@ -2478,22 +2478,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>17.21748472901746</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>114.4216569641755</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>6.778005649686229</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>153.01156706812</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>237.124837410167</v>
@@ -2538,7 +2538,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>240.1382575886529</v>
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>415.6498806486147</v>
+        <v>409.0129132065947</v>
       </c>
       <c r="C26" t="n">
-        <v>354.9427021330794</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
         <v>419.0596946068497</v>
@@ -2569,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>398.3228448427254</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2608,10 +2608,10 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>210.080265299677</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>255.6135341540542</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2620,10 +2620,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2715,7 +2715,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>15.19163211476499</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2724,13 +2724,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
         <v>163.7094577587503</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>134.4903647118297</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>6.778005649686222</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>153.01156706812</v>
@@ -2769,13 +2769,13 @@
         <v>237.124837410167</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3343344374282</v>
+        <v>266.7743307960762</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>240.1382575886529</v>
@@ -2791,16 +2791,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>299.3640462645127</v>
       </c>
       <c r="C29" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -2809,7 +2809,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>202.7489420812596</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>58.36782720556179</v>
+        <v>58.3678272055618</v>
       </c>
       <c r="T29" t="n">
         <v>210.080265299677</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>255.6135341540542</v>
       </c>
       <c r="V29" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2952,22 +2952,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>129.6449001110142</v>
       </c>
       <c r="D31" t="n">
-        <v>8.648252383641303</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.7094577587503</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>134.4903647118297</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>6.778005649686222</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>153.01156706812</v>
       </c>
       <c r="T31" t="n">
-        <v>237.124837410167</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3343344374282</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>278.8943527180514</v>
@@ -3018,7 +3018,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>182.3971821734786</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>112.4144586388933</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>274.6854808033287</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,19 +3079,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.36782720556179</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>255.6135341540542</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3186,16 +3186,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>17.21748472901746</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>6.778005649686222</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>153.01156706812</v>
@@ -3255,7 +3255,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
-        <v>224.0793406271554</v>
+        <v>101.540178752256</v>
       </c>
     </row>
     <row r="35">
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>274.6854808033287</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>58.36782720556179</v>
+        <v>58.3678272055618</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>255.6135341540542</v>
       </c>
       <c r="V35" t="n">
-        <v>100.5453633331762</v>
+        <v>94.63866137670226</v>
       </c>
       <c r="W35" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>141.8885969746229</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>71.0439878662997</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>134.4903647118297</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>6.778005649686222</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>153.01156706812</v>
       </c>
       <c r="T37" t="n">
-        <v>237.124837410167</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>277.3343344374282</v>
@@ -3492,7 +3492,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3517,10 +3517,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>398.3228448427254</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>201.3794627989079</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3556,16 +3556,16 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>210.080265299677</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>255.6135341540542</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>199.3814093632196</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
         <v>407.6027988439302</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.7094577587503</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>134.4903647118297</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>72.15825564197092</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>6.778005649686222</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>153.01156706812</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>237.124837410167</v>
       </c>
       <c r="U40" t="n">
-        <v>115.8394303378844</v>
+        <v>277.3343344374282</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
@@ -3726,10 +3726,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>124.4416063031661</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>387.7151858281521</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>398.3228448427254</v>
       </c>
       <c r="H41" t="n">
-        <v>274.6854808033287</v>
+        <v>66.58589063342721</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>210.080265299677</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3805,10 +3805,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>60.90452502067237</v>
+        <v>60.90452502067238</v>
       </c>
       <c r="T42" t="n">
         <v>136.2065070493723</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>109.5955314346626</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>163.7094577587503</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>134.4903647118297</v>
       </c>
       <c r="I43" t="n">
-        <v>72.15825564197091</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>6.778005649686222</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>153.01156706812</v>
+        <v>153.0115670681201</v>
       </c>
       <c r="T43" t="n">
-        <v>237.124837410167</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3343344374282</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>124.6615386605147</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
@@ -3966,7 +3966,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3991,7 +3991,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>398.3228448427254</v>
+        <v>392.7817195560981</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4030,7 +4030,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>28.07297515578457</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4039,7 +4039,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>60.90452502067237</v>
+        <v>60.90452502067238</v>
       </c>
       <c r="T45" t="n">
         <v>136.2065070493723</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>87.05186285911749</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>161.683605144497</v>
@@ -4146,7 +4146,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
         <v>163.7094577587503</v>
@@ -4155,7 +4155,7 @@
         <v>134.4903647118297</v>
       </c>
       <c r="I46" t="n">
-        <v>72.15825564197091</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>6.778005649686222</v>
+        <v>6.778005649686236</v>
       </c>
       <c r="S46" t="n">
-        <v>153.01156706812</v>
+        <v>153.0115670681201</v>
       </c>
       <c r="T46" t="n">
-        <v>237.124837410167</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>1.738429427447751</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1147.326571644523</v>
+        <v>467.5201821030536</v>
       </c>
       <c r="C11" t="n">
-        <v>1147.326571644523</v>
+        <v>467.5201821030536</v>
       </c>
       <c r="D11" t="n">
-        <v>1147.326571644523</v>
+        <v>467.5201821030536</v>
       </c>
       <c r="E11" t="n">
-        <v>1147.326571644523</v>
+        <v>467.5201821030536</v>
       </c>
       <c r="F11" t="n">
-        <v>722.2023898339227</v>
+        <v>42.39600029245378</v>
       </c>
       <c r="G11" t="n">
-        <v>319.8560819119778</v>
+        <v>42.39600029245378</v>
       </c>
       <c r="H11" t="n">
-        <v>42.39600029245376</v>
+        <v>42.39600029245378</v>
       </c>
       <c r="I11" t="n">
-        <v>83.49041341423344</v>
+        <v>83.49041341423384</v>
       </c>
       <c r="J11" t="n">
-        <v>220.1314621299482</v>
+        <v>220.1314621299487</v>
       </c>
       <c r="K11" t="n">
-        <v>433.1659828319409</v>
+        <v>433.1659828319417</v>
       </c>
       <c r="L11" t="n">
-        <v>703.4506798655935</v>
+        <v>703.4506798655947</v>
       </c>
       <c r="M11" t="n">
-        <v>1009.34076718589</v>
+        <v>1009.340767185891</v>
       </c>
       <c r="N11" t="n">
-        <v>1320.930219778829</v>
+        <v>1320.93021977883</v>
       </c>
       <c r="O11" t="n">
-        <v>1612.988324273002</v>
+        <v>1612.988324273003</v>
       </c>
       <c r="P11" t="n">
-        <v>1856.646746816143</v>
+        <v>1856.646746816144</v>
       </c>
       <c r="Q11" t="n">
-        <v>2031.796003420093</v>
+        <v>2031.796003420094</v>
       </c>
       <c r="R11" t="n">
-        <v>2119.800014622688</v>
+        <v>2119.800014622689</v>
       </c>
       <c r="S11" t="n">
-        <v>2060.842613404949</v>
+        <v>2060.84261340495</v>
       </c>
       <c r="T11" t="n">
-        <v>1848.640325223457</v>
+        <v>1884.933705766066</v>
       </c>
       <c r="U11" t="n">
-        <v>1590.444836178958</v>
+        <v>1626.738216721567</v>
       </c>
       <c r="V11" t="n">
-        <v>1590.444836178958</v>
+        <v>1269.248801847816</v>
       </c>
       <c r="W11" t="n">
-        <v>1559.046570476775</v>
+        <v>872.8574521481632</v>
       </c>
       <c r="X11" t="n">
-        <v>1147.326571644523</v>
+        <v>872.8574521481632</v>
       </c>
       <c r="Y11" t="n">
-        <v>1147.326571644523</v>
+        <v>467.5201821030536</v>
       </c>
     </row>
     <row r="12">
@@ -5111,28 +5111,28 @@
         <v>178.4622298401883</v>
       </c>
       <c r="G12" t="n">
-        <v>85.47467570704998</v>
+        <v>85.47467570705001</v>
       </c>
       <c r="H12" t="n">
-        <v>42.39600029245376</v>
+        <v>42.39600029245378</v>
       </c>
       <c r="I12" t="n">
-        <v>62.36450125466524</v>
+        <v>62.36450125466527</v>
       </c>
       <c r="J12" t="n">
-        <v>140.6890736543378</v>
+        <v>140.6890736543379</v>
       </c>
       <c r="K12" t="n">
-        <v>287.2584022575215</v>
+        <v>562.3618210850104</v>
       </c>
       <c r="L12" t="n">
-        <v>491.866365280809</v>
+        <v>766.969784108298</v>
       </c>
       <c r="M12" t="n">
-        <v>733.7796984728376</v>
+        <v>1008.883117300327</v>
       </c>
       <c r="N12" t="n">
-        <v>984.4371625576792</v>
+        <v>1259.540581385168</v>
       </c>
       <c r="O12" t="n">
         <v>1485.232474392533</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>778.0922670602861</v>
+        <v>586.3105275464768</v>
       </c>
       <c r="C13" t="n">
-        <v>606.1197039392021</v>
+        <v>586.3105275464768</v>
       </c>
       <c r="D13" t="n">
-        <v>442.8029310659728</v>
+        <v>422.9937546732475</v>
       </c>
       <c r="E13" t="n">
-        <v>442.8029310659728</v>
+        <v>422.9937546732475</v>
       </c>
       <c r="F13" t="n">
-        <v>270.9411568405332</v>
+        <v>251.1319804478079</v>
       </c>
       <c r="G13" t="n">
         <v>251.1319804478079</v>
@@ -5196,55 +5196,55 @@
         <v>115.2831272035355</v>
       </c>
       <c r="I13" t="n">
-        <v>42.39600029245376</v>
+        <v>42.39600029245378</v>
       </c>
       <c r="J13" t="n">
-        <v>161.8270914180507</v>
+        <v>83.90537476982988</v>
       </c>
       <c r="K13" t="n">
-        <v>242.8581411002464</v>
+        <v>308.5295399622787</v>
       </c>
       <c r="L13" t="n">
-        <v>727.7985723972558</v>
+        <v>417.0810776681233</v>
       </c>
       <c r="M13" t="n">
-        <v>996.1926270712755</v>
+        <v>532.0629251200697</v>
       </c>
       <c r="N13" t="n">
-        <v>1507.750233989477</v>
+        <v>1043.620532038271</v>
       </c>
       <c r="O13" t="n">
-        <v>1987.01010159062</v>
+        <v>1522.880399639414</v>
       </c>
       <c r="P13" t="n">
-        <v>2070.812554180405</v>
+        <v>1919.439056802506</v>
       </c>
       <c r="Q13" t="n">
-        <v>2119.800014622688</v>
+        <v>2119.800014622689</v>
       </c>
       <c r="R13" t="n">
-        <v>2112.95354426947</v>
+        <v>2112.953544269471</v>
       </c>
       <c r="S13" t="n">
-        <v>1958.396405816823</v>
+        <v>1958.396405816824</v>
       </c>
       <c r="T13" t="n">
-        <v>1718.876368028776</v>
+        <v>1718.876368028777</v>
       </c>
       <c r="U13" t="n">
-        <v>1718.876368028776</v>
+        <v>1438.740676677839</v>
       </c>
       <c r="V13" t="n">
-        <v>1437.164900636805</v>
+        <v>1157.029209285868</v>
       </c>
       <c r="W13" t="n">
-        <v>1437.164900636805</v>
+        <v>882.1768054583808</v>
       </c>
       <c r="X13" t="n">
-        <v>1194.60100408261</v>
+        <v>882.1768054583808</v>
       </c>
       <c r="Y13" t="n">
-        <v>968.2582357723518</v>
+        <v>655.8340371481229</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1293.159110839998</v>
+        <v>1356.973329703829</v>
       </c>
       <c r="C14" t="n">
-        <v>1293.159110839998</v>
+        <v>1356.973329703829</v>
       </c>
       <c r="D14" t="n">
-        <v>869.8664900249985</v>
+        <v>933.680708888829</v>
       </c>
       <c r="E14" t="n">
-        <v>869.8664900249985</v>
+        <v>507.7037690366866</v>
       </c>
       <c r="F14" t="n">
-        <v>444.7423082143987</v>
+        <v>82.5795872260868</v>
       </c>
       <c r="G14" t="n">
-        <v>42.39600029245376</v>
+        <v>42.39600029245378</v>
       </c>
       <c r="H14" t="n">
-        <v>42.39600029245376</v>
+        <v>42.39600029245378</v>
       </c>
       <c r="I14" t="n">
-        <v>83.49041341423344</v>
+        <v>83.4904134142339</v>
       </c>
       <c r="J14" t="n">
-        <v>220.1314621299477</v>
+        <v>220.1314621299487</v>
       </c>
       <c r="K14" t="n">
-        <v>433.1659828319407</v>
+        <v>433.1659828319416</v>
       </c>
       <c r="L14" t="n">
-        <v>703.4506798655934</v>
+        <v>703.4506798655943</v>
       </c>
       <c r="M14" t="n">
-        <v>1009.34076718589</v>
+        <v>1009.340767185891</v>
       </c>
       <c r="N14" t="n">
-        <v>1320.930219778829</v>
+        <v>1320.93021977883</v>
       </c>
       <c r="O14" t="n">
-        <v>1612.988324273002</v>
+        <v>1612.988324273003</v>
       </c>
       <c r="P14" t="n">
-        <v>1856.646746816143</v>
+        <v>1856.646746816144</v>
       </c>
       <c r="Q14" t="n">
-        <v>2031.796003420093</v>
+        <v>2031.796003420094</v>
       </c>
       <c r="R14" t="n">
-        <v>2119.800014622688</v>
+        <v>2119.800014622689</v>
       </c>
       <c r="S14" t="n">
-        <v>2119.800014622688</v>
+        <v>2119.800014622689</v>
       </c>
       <c r="T14" t="n">
-        <v>1907.597726441196</v>
+        <v>2119.800014622689</v>
       </c>
       <c r="U14" t="n">
-        <v>1907.597726441196</v>
+        <v>2119.800014622689</v>
       </c>
       <c r="V14" t="n">
-        <v>1907.597726441196</v>
+        <v>1762.310599748939</v>
       </c>
       <c r="W14" t="n">
-        <v>1907.597726441196</v>
+        <v>1762.310599748939</v>
       </c>
       <c r="X14" t="n">
-        <v>1713.007475131528</v>
+        <v>1762.310599748939</v>
       </c>
       <c r="Y14" t="n">
-        <v>1713.007475131528</v>
+        <v>1356.973329703829</v>
       </c>
     </row>
     <row r="15">
@@ -5348,34 +5348,34 @@
         <v>178.4622298401883</v>
       </c>
       <c r="G15" t="n">
-        <v>85.47467570704998</v>
+        <v>85.47467570705001</v>
       </c>
       <c r="H15" t="n">
-        <v>42.39600029245376</v>
+        <v>42.39600029245378</v>
       </c>
       <c r="I15" t="n">
-        <v>62.36450125466525</v>
+        <v>85.82180709907712</v>
       </c>
       <c r="J15" t="n">
-        <v>140.6890736543379</v>
+        <v>164.1463794987498</v>
       </c>
       <c r="K15" t="n">
-        <v>287.2584022575217</v>
+        <v>310.7157081019335</v>
       </c>
       <c r="L15" t="n">
-        <v>766.969784108298</v>
+        <v>515.3236711252209</v>
       </c>
       <c r="M15" t="n">
-        <v>1008.883117300327</v>
+        <v>757.2370043172496</v>
       </c>
       <c r="N15" t="n">
-        <v>1259.540581385168</v>
+        <v>1007.894468402091</v>
       </c>
       <c r="O15" t="n">
-        <v>1485.232474392533</v>
+        <v>1233.586361409456</v>
       </c>
       <c r="P15" t="n">
-        <v>1663.228492615173</v>
+        <v>1411.582379632096</v>
       </c>
       <c r="Q15" t="n">
         <v>1774.102247579974</v>
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>341.5616264099555</v>
+        <v>850.7590524016814</v>
       </c>
       <c r="C16" t="n">
-        <v>341.5616264099555</v>
+        <v>678.7864892805974</v>
       </c>
       <c r="D16" t="n">
-        <v>178.2448535367262</v>
+        <v>515.4697164073681</v>
       </c>
       <c r="E16" t="n">
-        <v>178.2448535367262</v>
+        <v>515.4697164073681</v>
       </c>
       <c r="F16" t="n">
-        <v>178.2448535367262</v>
+        <v>343.6079421819285</v>
       </c>
       <c r="G16" t="n">
         <v>178.2448535367262</v>
       </c>
       <c r="H16" t="n">
-        <v>42.39600029245376</v>
+        <v>42.39600029245378</v>
       </c>
       <c r="I16" t="n">
-        <v>42.39600029245376</v>
+        <v>42.39600029245378</v>
       </c>
       <c r="J16" t="n">
-        <v>83.90537476982985</v>
+        <v>83.90537476982988</v>
       </c>
       <c r="K16" t="n">
         <v>412.2190335660476</v>
@@ -5445,43 +5445,43 @@
         <v>897.1594648630571</v>
       </c>
       <c r="M16" t="n">
-        <v>1421.809968482172</v>
+        <v>1373.89495137448</v>
       </c>
       <c r="N16" t="n">
-        <v>1572.696353719373</v>
+        <v>1885.452558292681</v>
       </c>
       <c r="O16" t="n">
-        <v>1674.253897017313</v>
+        <v>1987.010101590621</v>
       </c>
       <c r="P16" t="n">
-        <v>2070.812554180405</v>
+        <v>2070.812554180406</v>
       </c>
       <c r="Q16" t="n">
-        <v>2119.800014622688</v>
+        <v>2119.800014622689</v>
       </c>
       <c r="R16" t="n">
-        <v>2112.95354426947</v>
+        <v>2119.800014622689</v>
       </c>
       <c r="S16" t="n">
-        <v>1958.396405816823</v>
+        <v>2119.800014622689</v>
       </c>
       <c r="T16" t="n">
-        <v>1718.876368028776</v>
+        <v>1880.279976834642</v>
       </c>
       <c r="U16" t="n">
-        <v>1438.740676677838</v>
+        <v>1600.144285483704</v>
       </c>
       <c r="V16" t="n">
-        <v>1157.029209285867</v>
+        <v>1318.432818091733</v>
       </c>
       <c r="W16" t="n">
-        <v>1000.634259986474</v>
+        <v>1043.580414264246</v>
       </c>
       <c r="X16" t="n">
-        <v>758.070363432279</v>
+        <v>1043.580414264246</v>
       </c>
       <c r="Y16" t="n">
-        <v>531.7275951220211</v>
+        <v>850.7590524016814</v>
       </c>
     </row>
     <row r="17">
@@ -5491,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>465.6886211074535</v>
+        <v>986.4074103692676</v>
       </c>
       <c r="C17" t="n">
-        <v>465.6886211074535</v>
+        <v>986.4074103692676</v>
       </c>
       <c r="D17" t="n">
-        <v>42.39600029245378</v>
+        <v>893.497121955196</v>
       </c>
       <c r="E17" t="n">
-        <v>42.39600029245378</v>
+        <v>467.5201821030536</v>
       </c>
       <c r="F17" t="n">
         <v>42.39600029245378</v>
@@ -5512,22 +5512,22 @@
         <v>42.39600029245378</v>
       </c>
       <c r="I17" t="n">
-        <v>83.4904134142339</v>
+        <v>83.49041341423413</v>
       </c>
       <c r="J17" t="n">
-        <v>220.1314621299487</v>
+        <v>220.131462129949</v>
       </c>
       <c r="K17" t="n">
-        <v>433.1659828319416</v>
+        <v>433.165982831942</v>
       </c>
       <c r="L17" t="n">
-        <v>703.4506798655942</v>
+        <v>703.4506798655946</v>
       </c>
       <c r="M17" t="n">
         <v>1009.34076718589</v>
       </c>
       <c r="N17" t="n">
-        <v>1320.930219778829</v>
+        <v>1320.93021977883</v>
       </c>
       <c r="O17" t="n">
         <v>1612.988324273003</v>
@@ -5551,16 +5551,16 @@
         <v>1802.647124360451</v>
       </c>
       <c r="V17" t="n">
-        <v>1445.1577094867</v>
+        <v>1802.647124360451</v>
       </c>
       <c r="W17" t="n">
-        <v>1445.1577094867</v>
+        <v>1406.255774660798</v>
       </c>
       <c r="X17" t="n">
-        <v>1033.437710654448</v>
+        <v>1406.255774660798</v>
       </c>
       <c r="Y17" t="n">
-        <v>628.1004406093379</v>
+        <v>1406.255774660798</v>
       </c>
     </row>
     <row r="18">
@@ -5591,22 +5591,22 @@
         <v>42.39600029245378</v>
       </c>
       <c r="I18" t="n">
-        <v>62.36450125466527</v>
+        <v>62.36450125466526</v>
       </c>
       <c r="J18" t="n">
         <v>140.6890736543379</v>
       </c>
       <c r="K18" t="n">
-        <v>287.2584022575217</v>
+        <v>562.3618210850105</v>
       </c>
       <c r="L18" t="n">
-        <v>491.8663652808091</v>
+        <v>766.969784108298</v>
       </c>
       <c r="M18" t="n">
-        <v>733.7796984728378</v>
+        <v>1008.883117300327</v>
       </c>
       <c r="N18" t="n">
-        <v>1258.430202091953</v>
+        <v>1259.540581385168</v>
       </c>
       <c r="O18" t="n">
         <v>1485.232474392533</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>413.270140593928</v>
+        <v>659.3727777264801</v>
       </c>
       <c r="C19" t="n">
-        <v>413.270140593928</v>
+        <v>659.3727777264801</v>
       </c>
       <c r="D19" t="n">
-        <v>249.9533677206987</v>
+        <v>496.0560048532508</v>
       </c>
       <c r="E19" t="n">
-        <v>207.7590889376561</v>
+        <v>496.0560048532508</v>
       </c>
       <c r="F19" t="n">
-        <v>207.7590889376561</v>
+        <v>324.1942306278112</v>
       </c>
       <c r="G19" t="n">
-        <v>42.39600029245378</v>
+        <v>158.8311419826088</v>
       </c>
       <c r="H19" t="n">
         <v>42.39600029245378</v>
@@ -5673,22 +5673,22 @@
         <v>42.39600029245378</v>
       </c>
       <c r="J19" t="n">
-        <v>83.90537476982988</v>
+        <v>161.8270914180507</v>
       </c>
       <c r="K19" t="n">
-        <v>164.9364244520256</v>
+        <v>490.1407502142685</v>
       </c>
       <c r="L19" t="n">
-        <v>417.0810776681233</v>
+        <v>975.0811815112779</v>
       </c>
       <c r="M19" t="n">
-        <v>532.0629251200697</v>
+        <v>1499.731685130394</v>
       </c>
       <c r="N19" t="n">
-        <v>1043.620532038271</v>
+        <v>1613.256369206715</v>
       </c>
       <c r="O19" t="n">
-        <v>1522.880399639414</v>
+        <v>1835.636604212722</v>
       </c>
       <c r="P19" t="n">
         <v>1919.439056802506</v>
@@ -5700,25 +5700,25 @@
         <v>2112.953544269471</v>
       </c>
       <c r="S19" t="n">
-        <v>1958.396405816824</v>
+        <v>2112.953544269471</v>
       </c>
       <c r="T19" t="n">
-        <v>1718.876368028777</v>
+        <v>1873.433506481423</v>
       </c>
       <c r="U19" t="n">
-        <v>1438.740676677839</v>
+        <v>1593.297815130486</v>
       </c>
       <c r="V19" t="n">
-        <v>1157.029209285868</v>
+        <v>1593.297815130486</v>
       </c>
       <c r="W19" t="n">
-        <v>882.1768054583808</v>
+        <v>1318.445411302999</v>
       </c>
       <c r="X19" t="n">
-        <v>639.6129089041859</v>
+        <v>1075.881514748804</v>
       </c>
       <c r="Y19" t="n">
-        <v>413.270140593928</v>
+        <v>849.5387464385458</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>683.0395618178018</v>
+        <v>744.9802637225775</v>
       </c>
       <c r="C20" t="n">
-        <v>683.0395618178018</v>
+        <v>744.9802637225775</v>
       </c>
       <c r="D20" t="n">
-        <v>683.0395618178018</v>
+        <v>744.9802637225775</v>
       </c>
       <c r="E20" t="n">
-        <v>257.0626219656593</v>
+        <v>744.9802637225775</v>
       </c>
       <c r="F20" t="n">
-        <v>257.0626219656593</v>
+        <v>319.8560819119778</v>
       </c>
       <c r="G20" t="n">
-        <v>257.0626219656593</v>
+        <v>319.8560819119778</v>
       </c>
       <c r="H20" t="n">
         <v>42.39600029245378</v>
@@ -5779,25 +5779,25 @@
         <v>2119.800014622689</v>
       </c>
       <c r="S20" t="n">
-        <v>2060.84261340495</v>
+        <v>2119.800014622689</v>
       </c>
       <c r="T20" t="n">
-        <v>1848.640325223458</v>
+        <v>2119.800014622689</v>
       </c>
       <c r="U20" t="n">
-        <v>1848.640325223458</v>
+        <v>1861.60452557819</v>
       </c>
       <c r="V20" t="n">
-        <v>1491.150910349708</v>
+        <v>1861.60452557819</v>
       </c>
       <c r="W20" t="n">
-        <v>1094.759560650054</v>
+        <v>1465.213175878537</v>
       </c>
       <c r="X20" t="n">
-        <v>683.0395618178018</v>
+        <v>1465.213175878537</v>
       </c>
       <c r="Y20" t="n">
-        <v>683.0395618178018</v>
+        <v>1164.828628014108</v>
       </c>
     </row>
     <row r="21">
@@ -5834,25 +5834,25 @@
         <v>140.6890736543379</v>
       </c>
       <c r="K21" t="n">
-        <v>456.9063208001049</v>
+        <v>287.2584022575217</v>
       </c>
       <c r="L21" t="n">
-        <v>661.5142838233924</v>
+        <v>491.8663652808091</v>
       </c>
       <c r="M21" t="n">
-        <v>903.427617015421</v>
+        <v>733.7796984728377</v>
       </c>
       <c r="N21" t="n">
-        <v>1154.085081100263</v>
+        <v>984.4371625576794</v>
       </c>
       <c r="O21" t="n">
-        <v>1379.776974107627</v>
+        <v>1210.129055565044</v>
       </c>
       <c r="P21" t="n">
-        <v>1557.772992330267</v>
+        <v>1663.228492615173</v>
       </c>
       <c r="Q21" t="n">
-        <v>1668.646747295068</v>
+        <v>1774.102247579974</v>
       </c>
       <c r="R21" t="n">
         <v>1815.547718957572</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>223.1041718818623</v>
+        <v>542.937636036325</v>
       </c>
       <c r="C22" t="n">
-        <v>205.7127731656831</v>
+        <v>542.937636036325</v>
       </c>
       <c r="D22" t="n">
-        <v>42.39600029245378</v>
+        <v>379.6208631630957</v>
       </c>
       <c r="E22" t="n">
-        <v>42.39600029245378</v>
+        <v>379.6208631630957</v>
       </c>
       <c r="F22" t="n">
-        <v>42.39600029245378</v>
+        <v>207.7590889376561</v>
       </c>
       <c r="G22" t="n">
         <v>42.39600029245378</v>
@@ -5910,22 +5910,22 @@
         <v>42.39600029245378</v>
       </c>
       <c r="J22" t="n">
-        <v>83.90537476982988</v>
+        <v>161.8270914180507</v>
       </c>
       <c r="K22" t="n">
-        <v>164.9364244520256</v>
+        <v>490.1407502142685</v>
       </c>
       <c r="L22" t="n">
-        <v>649.876855749035</v>
+        <v>975.0811815112779</v>
       </c>
       <c r="M22" t="n">
-        <v>764.8587032009814</v>
+        <v>1090.063028963224</v>
       </c>
       <c r="N22" t="n">
-        <v>1194.99402941617</v>
+        <v>1601.620635881426</v>
       </c>
       <c r="O22" t="n">
-        <v>1674.253897017314</v>
+        <v>1987.010101590621</v>
       </c>
       <c r="P22" t="n">
         <v>2070.812554180406</v>
@@ -5934,28 +5934,28 @@
         <v>2119.800014622689</v>
       </c>
       <c r="R22" t="n">
-        <v>2112.953544269471</v>
+        <v>2119.800014622689</v>
       </c>
       <c r="S22" t="n">
-        <v>1958.396405816824</v>
+        <v>1965.242876170043</v>
       </c>
       <c r="T22" t="n">
-        <v>1718.876368028777</v>
+        <v>1725.722838381995</v>
       </c>
       <c r="U22" t="n">
-        <v>1438.740676677839</v>
+        <v>1445.587147031058</v>
       </c>
       <c r="V22" t="n">
-        <v>1157.029209285868</v>
+        <v>1163.875679639086</v>
       </c>
       <c r="W22" t="n">
-        <v>882.1768054583808</v>
+        <v>975.6675013025855</v>
       </c>
       <c r="X22" t="n">
-        <v>639.6129089041859</v>
+        <v>733.1036047483906</v>
       </c>
       <c r="Y22" t="n">
-        <v>413.270140593928</v>
+        <v>733.1036047483906</v>
       </c>
     </row>
     <row r="23">
@@ -5965,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>774.2051221877757</v>
+        <v>1294.614380286049</v>
       </c>
       <c r="C23" t="n">
-        <v>774.2051221877757</v>
+        <v>868.0349290293984</v>
       </c>
       <c r="D23" t="n">
-        <v>774.2051221877757</v>
+        <v>444.7423082143987</v>
       </c>
       <c r="E23" t="n">
         <v>444.7423082143987</v>
@@ -5980,31 +5980,31 @@
         <v>444.7423082143987</v>
       </c>
       <c r="G23" t="n">
-        <v>42.39600029245378</v>
+        <v>42.39600029245377</v>
       </c>
       <c r="H23" t="n">
-        <v>42.39600029245378</v>
+        <v>42.39600029245377</v>
       </c>
       <c r="I23" t="n">
-        <v>83.49041341423379</v>
+        <v>83.49041341423344</v>
       </c>
       <c r="J23" t="n">
-        <v>220.1314621299487</v>
+        <v>220.1314621299482</v>
       </c>
       <c r="K23" t="n">
-        <v>433.1659828319417</v>
+        <v>433.1659828319412</v>
       </c>
       <c r="L23" t="n">
-        <v>703.4506798655945</v>
+        <v>703.4506798655939</v>
       </c>
       <c r="M23" t="n">
         <v>1009.34076718589</v>
       </c>
       <c r="N23" t="n">
-        <v>1320.93021977883</v>
+        <v>1320.930219778829</v>
       </c>
       <c r="O23" t="n">
-        <v>1612.988324273003</v>
+        <v>1612.988324273002</v>
       </c>
       <c r="P23" t="n">
         <v>1856.646746816144</v>
@@ -6016,25 +6016,25 @@
         <v>2119.800014622689</v>
       </c>
       <c r="S23" t="n">
-        <v>2060.84261340495</v>
+        <v>2119.800014622689</v>
       </c>
       <c r="T23" t="n">
-        <v>1848.640325223458</v>
+        <v>2119.800014622689</v>
       </c>
       <c r="U23" t="n">
-        <v>1590.444836178959</v>
+        <v>2119.800014622689</v>
       </c>
       <c r="V23" t="n">
-        <v>1590.444836178959</v>
+        <v>2119.800014622689</v>
       </c>
       <c r="W23" t="n">
-        <v>1194.053486479306</v>
+        <v>2119.800014622689</v>
       </c>
       <c r="X23" t="n">
-        <v>1194.053486479306</v>
+        <v>2119.800014622689</v>
       </c>
       <c r="Y23" t="n">
-        <v>1194.053486479306</v>
+        <v>1714.462744577579</v>
       </c>
     </row>
     <row r="24">
@@ -6059,13 +6059,13 @@
         <v>178.4622298401883</v>
       </c>
       <c r="G24" t="n">
-        <v>85.47467570705001</v>
+        <v>85.47467570705</v>
       </c>
       <c r="H24" t="n">
-        <v>42.39600029245378</v>
+        <v>42.39600029245377</v>
       </c>
       <c r="I24" t="n">
-        <v>62.36450125466527</v>
+        <v>62.36450125466526</v>
       </c>
       <c r="J24" t="n">
         <v>140.6890736543379</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>223.1041718818623</v>
+        <v>659.3601845152141</v>
       </c>
       <c r="C25" t="n">
-        <v>205.7127731656831</v>
+        <v>659.3601845152141</v>
       </c>
       <c r="D25" t="n">
-        <v>42.39600029245378</v>
+        <v>496.0434116419848</v>
       </c>
       <c r="E25" t="n">
-        <v>42.39600029245378</v>
+        <v>329.8352057948383</v>
       </c>
       <c r="F25" t="n">
-        <v>42.39600029245378</v>
+        <v>157.9734315693987</v>
       </c>
       <c r="G25" t="n">
-        <v>42.39600029245378</v>
+        <v>157.9734315693987</v>
       </c>
       <c r="H25" t="n">
-        <v>42.39600029245378</v>
+        <v>42.39600029245377</v>
       </c>
       <c r="I25" t="n">
-        <v>42.39600029245378</v>
+        <v>42.39600029245377</v>
       </c>
       <c r="J25" t="n">
-        <v>83.90537476982989</v>
+        <v>83.90537476982986</v>
       </c>
       <c r="K25" t="n">
-        <v>164.9364244520256</v>
+        <v>362.990585746316</v>
       </c>
       <c r="L25" t="n">
-        <v>273.4879621578701</v>
+        <v>471.5421234521606</v>
       </c>
       <c r="M25" t="n">
-        <v>798.1384657769856</v>
+        <v>996.192627071276</v>
       </c>
       <c r="N25" t="n">
-        <v>1309.696072695187</v>
+        <v>1507.750233989477</v>
       </c>
       <c r="O25" t="n">
-        <v>1788.95594029633</v>
+        <v>1987.010101590621</v>
       </c>
       <c r="P25" t="n">
-        <v>1919.439056802506</v>
+        <v>2070.812554180405</v>
       </c>
       <c r="Q25" t="n">
         <v>2119.800014622689</v>
       </c>
       <c r="R25" t="n">
-        <v>2112.953544269471</v>
+        <v>2119.800014622689</v>
       </c>
       <c r="S25" t="n">
-        <v>1958.396405816824</v>
+        <v>2119.800014622689</v>
       </c>
       <c r="T25" t="n">
-        <v>1718.876368028777</v>
+        <v>1880.279976834641</v>
       </c>
       <c r="U25" t="n">
-        <v>1438.740676677839</v>
+        <v>1600.144285483704</v>
       </c>
       <c r="V25" t="n">
-        <v>1157.029209285868</v>
+        <v>1318.432818091733</v>
       </c>
       <c r="W25" t="n">
-        <v>882.1768054583808</v>
+        <v>1318.432818091733</v>
       </c>
       <c r="X25" t="n">
-        <v>639.6129089041859</v>
+        <v>1075.868921537538</v>
       </c>
       <c r="Y25" t="n">
-        <v>413.270140593928</v>
+        <v>849.5261532272798</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>824.216603060059</v>
+        <v>1294.935659016098</v>
       </c>
       <c r="C26" t="n">
-        <v>465.6886211074535</v>
+        <v>868.0349290293984</v>
       </c>
       <c r="D26" t="n">
-        <v>42.3960002924538</v>
+        <v>444.7423082143987</v>
       </c>
       <c r="E26" t="n">
-        <v>42.3960002924538</v>
+        <v>444.7423082143987</v>
       </c>
       <c r="F26" t="n">
-        <v>42.3960002924538</v>
+        <v>444.7423082143987</v>
       </c>
       <c r="G26" t="n">
-        <v>42.3960002924538</v>
+        <v>42.39600029245378</v>
       </c>
       <c r="H26" t="n">
-        <v>42.3960002924538</v>
+        <v>42.39600029245378</v>
       </c>
       <c r="I26" t="n">
         <v>83.4904134142339</v>
       </c>
       <c r="J26" t="n">
-        <v>220.1314621299488</v>
+        <v>220.1314621299489</v>
       </c>
       <c r="K26" t="n">
-        <v>433.1659828319419</v>
+        <v>433.1659828319421</v>
       </c>
       <c r="L26" t="n">
-        <v>703.4506798655947</v>
+        <v>703.4506798655949</v>
       </c>
       <c r="M26" t="n">
         <v>1009.340767185891</v>
       </c>
       <c r="N26" t="n">
-        <v>1320.930219778831</v>
+        <v>1320.93021977883</v>
       </c>
       <c r="O26" t="n">
-        <v>1612.988324273004</v>
+        <v>1612.988324273003</v>
       </c>
       <c r="P26" t="n">
-        <v>1856.646746816145</v>
+        <v>1856.646746816144</v>
       </c>
       <c r="Q26" t="n">
-        <v>2031.796003420095</v>
+        <v>2031.796003420094</v>
       </c>
       <c r="R26" t="n">
-        <v>2119.80001462269</v>
+        <v>2119.800014622689</v>
       </c>
       <c r="S26" t="n">
-        <v>2119.80001462269</v>
+        <v>2119.800014622689</v>
       </c>
       <c r="T26" t="n">
-        <v>1907.597726441198</v>
+        <v>2119.800014622689</v>
       </c>
       <c r="U26" t="n">
-        <v>1649.402237396699</v>
+        <v>2119.800014622689</v>
       </c>
       <c r="V26" t="n">
-        <v>1649.402237396699</v>
+        <v>2119.800014622689</v>
       </c>
       <c r="W26" t="n">
-        <v>1649.402237396699</v>
+        <v>2119.800014622689</v>
       </c>
       <c r="X26" t="n">
-        <v>1649.402237396699</v>
+        <v>1708.080015790436</v>
       </c>
       <c r="Y26" t="n">
-        <v>1244.064967351589</v>
+        <v>1708.080015790436</v>
       </c>
     </row>
     <row r="27">
@@ -6296,37 +6296,37 @@
         <v>178.4622298401883</v>
       </c>
       <c r="G27" t="n">
-        <v>85.47467570705003</v>
+        <v>85.47467570705001</v>
       </c>
       <c r="H27" t="n">
-        <v>42.3960002924538</v>
+        <v>42.39600029245378</v>
       </c>
       <c r="I27" t="n">
-        <v>62.36450125466529</v>
+        <v>85.82180709907712</v>
       </c>
       <c r="J27" t="n">
-        <v>140.6890736543379</v>
+        <v>310.3369921969208</v>
       </c>
       <c r="K27" t="n">
-        <v>287.2584022575218</v>
+        <v>456.9063208001047</v>
       </c>
       <c r="L27" t="n">
-        <v>491.8663652808093</v>
+        <v>661.5142838233921</v>
       </c>
       <c r="M27" t="n">
-        <v>733.779698472838</v>
+        <v>903.4276170154208</v>
       </c>
       <c r="N27" t="n">
-        <v>984.4371625576798</v>
+        <v>1154.085081100262</v>
       </c>
       <c r="O27" t="n">
-        <v>1210.129055565045</v>
+        <v>1379.776974107627</v>
       </c>
       <c r="P27" t="n">
-        <v>1663.228492615173</v>
+        <v>1557.772992330267</v>
       </c>
       <c r="Q27" t="n">
-        <v>1774.102247579974</v>
+        <v>1668.646747295068</v>
       </c>
       <c r="R27" t="n">
         <v>1815.547718957572</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>223.1041718818632</v>
+        <v>515.4697164073681</v>
       </c>
       <c r="C28" t="n">
-        <v>207.7590889376562</v>
+        <v>515.4697164073681</v>
       </c>
       <c r="D28" t="n">
-        <v>207.7590889376562</v>
+        <v>515.4697164073681</v>
       </c>
       <c r="E28" t="n">
-        <v>207.7590889376562</v>
+        <v>515.4697164073681</v>
       </c>
       <c r="F28" t="n">
-        <v>207.7590889376562</v>
+        <v>343.6079421819285</v>
       </c>
       <c r="G28" t="n">
-        <v>42.3960002924538</v>
+        <v>178.2448535367262</v>
       </c>
       <c r="H28" t="n">
-        <v>42.3960002924538</v>
+        <v>42.39600029245378</v>
       </c>
       <c r="I28" t="n">
-        <v>42.3960002924538</v>
+        <v>42.39600029245378</v>
       </c>
       <c r="J28" t="n">
-        <v>83.9053747698299</v>
+        <v>83.90537476982988</v>
       </c>
       <c r="K28" t="n">
         <v>164.9364244520256</v>
       </c>
       <c r="L28" t="n">
-        <v>536.4882431820573</v>
+        <v>273.4879621578701</v>
       </c>
       <c r="M28" t="n">
-        <v>1061.138746801173</v>
+        <v>798.1384657769856</v>
       </c>
       <c r="N28" t="n">
-        <v>1572.696353719374</v>
+        <v>1309.696072695187</v>
       </c>
       <c r="O28" t="n">
-        <v>1674.253897017314</v>
+        <v>1788.95594029633</v>
       </c>
       <c r="P28" t="n">
-        <v>2070.812554180407</v>
+        <v>2070.812554180406</v>
       </c>
       <c r="Q28" t="n">
-        <v>2119.80001462269</v>
+        <v>2119.800014622689</v>
       </c>
       <c r="R28" t="n">
-        <v>2112.953544269471</v>
+        <v>2119.800014622689</v>
       </c>
       <c r="S28" t="n">
-        <v>1958.396405816825</v>
+        <v>1965.242876170043</v>
       </c>
       <c r="T28" t="n">
-        <v>1718.876368028778</v>
+        <v>1725.722838381995</v>
       </c>
       <c r="U28" t="n">
-        <v>1438.74067667784</v>
+        <v>1456.253817375858</v>
       </c>
       <c r="V28" t="n">
-        <v>1157.029209285869</v>
+        <v>1174.542349983886</v>
       </c>
       <c r="W28" t="n">
-        <v>882.1768054583818</v>
+        <v>1174.542349983886</v>
       </c>
       <c r="X28" t="n">
-        <v>639.6129089041868</v>
+        <v>931.9784534296916</v>
       </c>
       <c r="Y28" t="n">
-        <v>413.2701405939289</v>
+        <v>705.6356851194337</v>
       </c>
     </row>
     <row r="29">
@@ -6439,40 +6439,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>674.0936414723452</v>
+        <v>891.665560959596</v>
       </c>
       <c r="C29" t="n">
-        <v>247.1929114856453</v>
+        <v>891.665560959596</v>
       </c>
       <c r="D29" t="n">
-        <v>247.1929114856453</v>
+        <v>468.3729401445962</v>
       </c>
       <c r="E29" t="n">
-        <v>247.1929114856453</v>
+        <v>42.39600029245378</v>
       </c>
       <c r="F29" t="n">
-        <v>247.1929114856453</v>
+        <v>42.39600029245378</v>
       </c>
       <c r="G29" t="n">
-        <v>247.1929114856453</v>
+        <v>42.39600029245378</v>
       </c>
       <c r="H29" t="n">
         <v>42.39600029245378</v>
       </c>
       <c r="I29" t="n">
-        <v>83.4904134142339</v>
+        <v>83.4904134142338</v>
       </c>
       <c r="J29" t="n">
-        <v>220.1314621299491</v>
+        <v>220.1314621299487</v>
       </c>
       <c r="K29" t="n">
-        <v>433.1659828319422</v>
+        <v>433.1659828319417</v>
       </c>
       <c r="L29" t="n">
-        <v>703.450679865595</v>
+        <v>703.4506798655943</v>
       </c>
       <c r="M29" t="n">
-        <v>1009.340767185891</v>
+        <v>1009.34076718589</v>
       </c>
       <c r="N29" t="n">
         <v>1320.93021977883</v>
@@ -6496,19 +6496,19 @@
         <v>1848.640325223458</v>
       </c>
       <c r="U29" t="n">
-        <v>1848.640325223458</v>
+        <v>1590.444836178959</v>
       </c>
       <c r="V29" t="n">
-        <v>1491.150910349708</v>
+        <v>1590.444836178959</v>
       </c>
       <c r="W29" t="n">
-        <v>1491.150910349708</v>
+        <v>1194.053486479306</v>
       </c>
       <c r="X29" t="n">
-        <v>1079.430911517455</v>
+        <v>1194.053486479306</v>
       </c>
       <c r="Y29" t="n">
-        <v>674.0936414723452</v>
+        <v>1194.053486479306</v>
       </c>
     </row>
     <row r="30">
@@ -6539,16 +6539,16 @@
         <v>42.39600029245378</v>
       </c>
       <c r="I30" t="n">
-        <v>62.36450125466528</v>
+        <v>62.36450125466527</v>
       </c>
       <c r="J30" t="n">
         <v>140.6890736543379</v>
       </c>
       <c r="K30" t="n">
-        <v>287.2584022575218</v>
+        <v>287.2584022575217</v>
       </c>
       <c r="L30" t="n">
-        <v>491.8663652808093</v>
+        <v>766.969784108298</v>
       </c>
       <c r="M30" t="n">
         <v>1008.883117300327</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>223.1041718818623</v>
+        <v>975.9491396843239</v>
       </c>
       <c r="C31" t="n">
-        <v>51.13160876077833</v>
+        <v>844.9946951277439</v>
       </c>
       <c r="D31" t="n">
-        <v>42.39600029245378</v>
+        <v>681.6779222545146</v>
       </c>
       <c r="E31" t="n">
-        <v>42.39600029245378</v>
+        <v>515.4697164073681</v>
       </c>
       <c r="F31" t="n">
-        <v>42.39600029245378</v>
+        <v>343.6079421819285</v>
       </c>
       <c r="G31" t="n">
-        <v>42.39600029245378</v>
+        <v>178.2448535367262</v>
       </c>
       <c r="H31" t="n">
         <v>42.39600029245378</v>
@@ -6621,22 +6621,22 @@
         <v>42.39600029245378</v>
       </c>
       <c r="J31" t="n">
-        <v>83.90537476982989</v>
+        <v>161.8270914180507</v>
       </c>
       <c r="K31" t="n">
-        <v>308.5295399622785</v>
+        <v>490.1407502142685</v>
       </c>
       <c r="L31" t="n">
-        <v>417.081077668123</v>
+        <v>718.2015489161419</v>
       </c>
       <c r="M31" t="n">
-        <v>532.0629251200695</v>
+        <v>1242.852052535257</v>
       </c>
       <c r="N31" t="n">
-        <v>1043.620532038271</v>
+        <v>1356.376736611579</v>
       </c>
       <c r="O31" t="n">
-        <v>1522.880399639414</v>
+        <v>1835.636604212722</v>
       </c>
       <c r="P31" t="n">
         <v>1919.439056802506</v>
@@ -6645,28 +6645,28 @@
         <v>2119.800014622689</v>
       </c>
       <c r="R31" t="n">
-        <v>2112.953544269471</v>
+        <v>2119.800014622689</v>
       </c>
       <c r="S31" t="n">
-        <v>1958.396405816824</v>
+        <v>1965.242876170043</v>
       </c>
       <c r="T31" t="n">
-        <v>1718.876368028777</v>
+        <v>1965.242876170043</v>
       </c>
       <c r="U31" t="n">
-        <v>1438.740676677839</v>
+        <v>1965.242876170043</v>
       </c>
       <c r="V31" t="n">
-        <v>1157.029209285868</v>
+        <v>1683.531408778071</v>
       </c>
       <c r="W31" t="n">
-        <v>882.1768054583808</v>
+        <v>1408.679004950584</v>
       </c>
       <c r="X31" t="n">
-        <v>639.6129089041859</v>
+        <v>1166.11510839639</v>
       </c>
       <c r="Y31" t="n">
-        <v>413.270140593928</v>
+        <v>1166.11510839639</v>
       </c>
     </row>
     <row r="32">
@@ -6676,49 +6676,49 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>581.0701403241579</v>
+        <v>1356.973329703829</v>
       </c>
       <c r="C32" t="n">
-        <v>581.0701403241579</v>
+        <v>930.0725997171289</v>
       </c>
       <c r="D32" t="n">
-        <v>581.0701403241579</v>
+        <v>745.8330217641202</v>
       </c>
       <c r="E32" t="n">
-        <v>581.0701403241579</v>
+        <v>319.8560819119778</v>
       </c>
       <c r="F32" t="n">
-        <v>155.9459585135581</v>
+        <v>319.8560819119778</v>
       </c>
       <c r="G32" t="n">
-        <v>42.39600029245378</v>
+        <v>319.8560819119778</v>
       </c>
       <c r="H32" t="n">
         <v>42.39600029245378</v>
       </c>
       <c r="I32" t="n">
-        <v>83.49041341423381</v>
+        <v>83.49041341423344</v>
       </c>
       <c r="J32" t="n">
-        <v>220.1314621299487</v>
+        <v>220.1314621299482</v>
       </c>
       <c r="K32" t="n">
-        <v>433.1659828319418</v>
+        <v>433.1659828319412</v>
       </c>
       <c r="L32" t="n">
-        <v>703.4506798655946</v>
+        <v>703.4506798655939</v>
       </c>
       <c r="M32" t="n">
-        <v>1009.340767185891</v>
+        <v>1009.34076718589</v>
       </c>
       <c r="N32" t="n">
-        <v>1320.93021977883</v>
+        <v>1320.930219778829</v>
       </c>
       <c r="O32" t="n">
         <v>1612.988324273003</v>
       </c>
       <c r="P32" t="n">
-        <v>1856.646746816145</v>
+        <v>1856.646746816144</v>
       </c>
       <c r="Q32" t="n">
         <v>2031.796003420094</v>
@@ -6727,25 +6727,25 @@
         <v>2119.800014622689</v>
       </c>
       <c r="S32" t="n">
-        <v>2060.84261340495</v>
+        <v>2119.800014622689</v>
       </c>
       <c r="T32" t="n">
-        <v>2060.84261340495</v>
+        <v>2119.800014622689</v>
       </c>
       <c r="U32" t="n">
-        <v>1802.647124360451</v>
+        <v>2119.800014622689</v>
       </c>
       <c r="V32" t="n">
-        <v>1802.647124360451</v>
+        <v>1762.310599748939</v>
       </c>
       <c r="W32" t="n">
-        <v>1406.255774660798</v>
+        <v>1762.310599748939</v>
       </c>
       <c r="X32" t="n">
-        <v>1406.255774660798</v>
+        <v>1762.310599748939</v>
       </c>
       <c r="Y32" t="n">
-        <v>1000.918504615688</v>
+        <v>1356.973329703829</v>
       </c>
     </row>
     <row r="33">
@@ -6776,28 +6776,28 @@
         <v>42.39600029245378</v>
       </c>
       <c r="I33" t="n">
-        <v>62.36450125466528</v>
+        <v>62.36450125466527</v>
       </c>
       <c r="J33" t="n">
         <v>140.6890736543379</v>
       </c>
       <c r="K33" t="n">
-        <v>287.2584022575218</v>
+        <v>287.2584022575217</v>
       </c>
       <c r="L33" t="n">
-        <v>491.8663652808093</v>
+        <v>491.8663652808091</v>
       </c>
       <c r="M33" t="n">
-        <v>733.779698472838</v>
+        <v>733.7796984728378</v>
       </c>
       <c r="N33" t="n">
-        <v>984.4371625576798</v>
+        <v>984.4371625576795</v>
       </c>
       <c r="O33" t="n">
-        <v>1210.129055565045</v>
+        <v>1485.232474392533</v>
       </c>
       <c r="P33" t="n">
-        <v>1388.125073787684</v>
+        <v>1663.228492615173</v>
       </c>
       <c r="Q33" t="n">
         <v>1774.102247579974</v>
@@ -6834,13 +6834,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>223.1041718818623</v>
+        <v>543.8935421339136</v>
       </c>
       <c r="C34" t="n">
-        <v>205.7127731656831</v>
+        <v>371.9209790128295</v>
       </c>
       <c r="D34" t="n">
-        <v>42.39600029245378</v>
+        <v>208.6042061396002</v>
       </c>
       <c r="E34" t="n">
         <v>42.39600029245378</v>
@@ -6858,22 +6858,22 @@
         <v>42.39600029245378</v>
       </c>
       <c r="J34" t="n">
-        <v>83.90537476982989</v>
+        <v>161.8270914180507</v>
       </c>
       <c r="K34" t="n">
-        <v>233.2611176191323</v>
+        <v>490.1407502142685</v>
       </c>
       <c r="L34" t="n">
-        <v>718.2015489161419</v>
+        <v>598.692287920113</v>
       </c>
       <c r="M34" t="n">
-        <v>1242.852052535257</v>
+        <v>713.6741353720595</v>
       </c>
       <c r="N34" t="n">
-        <v>1356.376736611579</v>
+        <v>1225.231742290261</v>
       </c>
       <c r="O34" t="n">
-        <v>1835.636604212722</v>
+        <v>1704.491609891404</v>
       </c>
       <c r="P34" t="n">
         <v>1919.439056802506</v>
@@ -6882,28 +6882,28 @@
         <v>2119.800014622689</v>
       </c>
       <c r="R34" t="n">
-        <v>2112.953544269471</v>
+        <v>2119.800014622689</v>
       </c>
       <c r="S34" t="n">
-        <v>1958.396405816824</v>
+        <v>1965.242876170043</v>
       </c>
       <c r="T34" t="n">
-        <v>1718.876368028777</v>
+        <v>1725.722838381995</v>
       </c>
       <c r="U34" t="n">
-        <v>1438.740676677839</v>
+        <v>1445.587147031058</v>
       </c>
       <c r="V34" t="n">
-        <v>1157.029209285868</v>
+        <v>1163.875679639086</v>
       </c>
       <c r="W34" t="n">
-        <v>882.1768054583808</v>
+        <v>889.0232758115994</v>
       </c>
       <c r="X34" t="n">
-        <v>639.6129089041859</v>
+        <v>646.4593792574045</v>
       </c>
       <c r="Y34" t="n">
-        <v>413.270140593928</v>
+        <v>543.8935421339136</v>
       </c>
     </row>
     <row r="35">
@@ -6913,43 +6913,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>745.8330217641202</v>
+        <v>890.8128029180533</v>
       </c>
       <c r="C35" t="n">
-        <v>745.8330217641202</v>
+        <v>890.8128029180533</v>
       </c>
       <c r="D35" t="n">
-        <v>745.8330217641202</v>
+        <v>467.5201821030536</v>
       </c>
       <c r="E35" t="n">
-        <v>319.8560819119778</v>
+        <v>467.5201821030536</v>
       </c>
       <c r="F35" t="n">
-        <v>319.8560819119778</v>
+        <v>42.39600029245378</v>
       </c>
       <c r="G35" t="n">
-        <v>319.8560819119778</v>
+        <v>42.39600029245378</v>
       </c>
       <c r="H35" t="n">
         <v>42.39600029245378</v>
       </c>
       <c r="I35" t="n">
-        <v>83.4904134142339</v>
+        <v>83.49041341423344</v>
       </c>
       <c r="J35" t="n">
-        <v>220.1314621299491</v>
+        <v>220.1314621299482</v>
       </c>
       <c r="K35" t="n">
-        <v>433.1659828319422</v>
+        <v>433.1659828319412</v>
       </c>
       <c r="L35" t="n">
-        <v>703.450679865595</v>
+        <v>703.4506798655939</v>
       </c>
       <c r="M35" t="n">
-        <v>1009.340767185891</v>
+        <v>1009.34076718589</v>
       </c>
       <c r="N35" t="n">
-        <v>1320.93021977883</v>
+        <v>1320.930219778829</v>
       </c>
       <c r="O35" t="n">
         <v>1612.988324273003</v>
@@ -6970,19 +6970,19 @@
         <v>2060.84261340495</v>
       </c>
       <c r="U35" t="n">
-        <v>2060.84261340495</v>
+        <v>1802.647124360451</v>
       </c>
       <c r="V35" t="n">
-        <v>1959.281640341136</v>
+        <v>1707.052516909236</v>
       </c>
       <c r="W35" t="n">
-        <v>1562.890290641483</v>
+        <v>1310.661167209583</v>
       </c>
       <c r="X35" t="n">
-        <v>1151.17029180923</v>
+        <v>1310.661167209583</v>
       </c>
       <c r="Y35" t="n">
-        <v>745.8330217641202</v>
+        <v>1310.661167209583</v>
       </c>
     </row>
     <row r="36">
@@ -7013,28 +7013,28 @@
         <v>42.39600029245378</v>
       </c>
       <c r="I36" t="n">
-        <v>62.36450125466528</v>
+        <v>62.36450125466527</v>
       </c>
       <c r="J36" t="n">
         <v>140.6890736543379</v>
       </c>
       <c r="K36" t="n">
-        <v>287.2584022575218</v>
+        <v>562.3618210850104</v>
       </c>
       <c r="L36" t="n">
-        <v>491.8663652808093</v>
+        <v>766.969784108298</v>
       </c>
       <c r="M36" t="n">
-        <v>733.779698472838</v>
+        <v>1008.883117300327</v>
       </c>
       <c r="N36" t="n">
-        <v>984.4371625576798</v>
+        <v>1259.540581385168</v>
       </c>
       <c r="O36" t="n">
-        <v>1210.129055565045</v>
+        <v>1485.232474392533</v>
       </c>
       <c r="P36" t="n">
-        <v>1388.125073787684</v>
+        <v>1663.228492615173</v>
       </c>
       <c r="Q36" t="n">
         <v>1774.102247579974</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>449.4469401921203</v>
+        <v>516.3148336093122</v>
       </c>
       <c r="C37" t="n">
-        <v>277.4743770710363</v>
+        <v>516.3148336093122</v>
       </c>
       <c r="D37" t="n">
-        <v>114.157604197807</v>
+        <v>516.3148336093122</v>
       </c>
       <c r="E37" t="n">
-        <v>42.39600029245378</v>
+        <v>350.1066277621658</v>
       </c>
       <c r="F37" t="n">
-        <v>42.39600029245378</v>
+        <v>178.2448535367262</v>
       </c>
       <c r="G37" t="n">
-        <v>42.39600029245378</v>
+        <v>178.2448535367262</v>
       </c>
       <c r="H37" t="n">
         <v>42.39600029245378</v>
@@ -7095,52 +7095,52 @@
         <v>42.39600029245378</v>
       </c>
       <c r="J37" t="n">
-        <v>83.90537476982989</v>
+        <v>83.90537476982988</v>
       </c>
       <c r="K37" t="n">
-        <v>164.9364244520256</v>
+        <v>211.6170883684172</v>
       </c>
       <c r="L37" t="n">
-        <v>649.8768557490351</v>
+        <v>320.1686260742617</v>
       </c>
       <c r="M37" t="n">
-        <v>1061.138746801172</v>
+        <v>844.8191296933772</v>
       </c>
       <c r="N37" t="n">
-        <v>1572.696353719374</v>
+        <v>1356.376736611579</v>
       </c>
       <c r="O37" t="n">
-        <v>1674.253897017313</v>
+        <v>1835.636604212722</v>
       </c>
       <c r="P37" t="n">
-        <v>2070.812554180406</v>
+        <v>1919.439056802506</v>
       </c>
       <c r="Q37" t="n">
         <v>2119.800014622689</v>
       </c>
       <c r="R37" t="n">
-        <v>2112.953544269471</v>
+        <v>2119.800014622689</v>
       </c>
       <c r="S37" t="n">
-        <v>1958.396405816824</v>
+        <v>1965.242876170043</v>
       </c>
       <c r="T37" t="n">
-        <v>1718.876368028777</v>
+        <v>1965.242876170043</v>
       </c>
       <c r="U37" t="n">
-        <v>1438.740676677839</v>
+        <v>1685.107184819105</v>
       </c>
       <c r="V37" t="n">
-        <v>1157.029209285868</v>
+        <v>1403.395717427134</v>
       </c>
       <c r="W37" t="n">
-        <v>882.1768054583808</v>
+        <v>1128.543313599647</v>
       </c>
       <c r="X37" t="n">
-        <v>639.6129089041859</v>
+        <v>885.9794170454519</v>
       </c>
       <c r="Y37" t="n">
-        <v>639.6129089041859</v>
+        <v>659.6366487351939</v>
       </c>
     </row>
     <row r="38">
@@ -7150,46 +7150,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>469.2967302791537</v>
+        <v>648.1559070011743</v>
       </c>
       <c r="C38" t="n">
-        <v>42.39600029245378</v>
+        <v>648.1559070011743</v>
       </c>
       <c r="D38" t="n">
-        <v>42.39600029245378</v>
+        <v>648.1559070011743</v>
       </c>
       <c r="E38" t="n">
-        <v>42.39600029245378</v>
+        <v>648.1559070011743</v>
       </c>
       <c r="F38" t="n">
-        <v>42.39600029245378</v>
+        <v>648.1559070011743</v>
       </c>
       <c r="G38" t="n">
-        <v>42.39600029245378</v>
+        <v>245.8095990792294</v>
       </c>
       <c r="H38" t="n">
         <v>42.39600029245378</v>
       </c>
       <c r="I38" t="n">
-        <v>83.49041341423299</v>
+        <v>83.4904134142339</v>
       </c>
       <c r="J38" t="n">
-        <v>220.131462129948</v>
+        <v>220.1314621299488</v>
       </c>
       <c r="K38" t="n">
-        <v>433.1659828319409</v>
+        <v>433.1659828319418</v>
       </c>
       <c r="L38" t="n">
-        <v>703.4506798655938</v>
+        <v>703.4506798655945</v>
       </c>
       <c r="M38" t="n">
-        <v>1009.34076718589</v>
+        <v>1009.340767185891</v>
       </c>
       <c r="N38" t="n">
-        <v>1320.930219778829</v>
+        <v>1320.93021977883</v>
       </c>
       <c r="O38" t="n">
-        <v>1612.988324273002</v>
+        <v>1612.988324273003</v>
       </c>
       <c r="P38" t="n">
         <v>1856.646746816144</v>
@@ -7204,22 +7204,22 @@
         <v>2119.800014622689</v>
       </c>
       <c r="T38" t="n">
-        <v>1907.597726441197</v>
+        <v>2119.800014622689</v>
       </c>
       <c r="U38" t="n">
-        <v>1907.597726441197</v>
+        <v>1861.60452557819</v>
       </c>
       <c r="V38" t="n">
-        <v>1907.597726441197</v>
+        <v>1861.60452557819</v>
       </c>
       <c r="W38" t="n">
-        <v>1706.202363448046</v>
+        <v>1465.213175878537</v>
       </c>
       <c r="X38" t="n">
-        <v>1294.482364615793</v>
+        <v>1053.493177046284</v>
       </c>
       <c r="Y38" t="n">
-        <v>889.1450945706838</v>
+        <v>648.1559070011743</v>
       </c>
     </row>
     <row r="39">
@@ -7250,19 +7250,19 @@
         <v>42.39600029245378</v>
       </c>
       <c r="I39" t="n">
-        <v>62.36450125466528</v>
+        <v>85.82180709907712</v>
       </c>
       <c r="J39" t="n">
-        <v>140.6890736543379</v>
+        <v>164.1463794987498</v>
       </c>
       <c r="K39" t="n">
-        <v>562.3618210850103</v>
+        <v>310.7157081019335</v>
       </c>
       <c r="L39" t="n">
-        <v>766.9697841082979</v>
+        <v>515.3236711252209</v>
       </c>
       <c r="M39" t="n">
-        <v>1008.883117300327</v>
+        <v>757.2370043172496</v>
       </c>
       <c r="N39" t="n">
         <v>1259.540581385168</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>386.2303376389773</v>
+        <v>917.8818220388257</v>
       </c>
       <c r="C40" t="n">
-        <v>214.2577745178934</v>
+        <v>917.8818220388257</v>
       </c>
       <c r="D40" t="n">
-        <v>214.2577745178934</v>
+        <v>754.5650491655964</v>
       </c>
       <c r="E40" t="n">
-        <v>214.2577745178934</v>
+        <v>588.3568433184499</v>
       </c>
       <c r="F40" t="n">
-        <v>42.39600029245378</v>
+        <v>416.4950690930103</v>
       </c>
       <c r="G40" t="n">
-        <v>42.39600029245378</v>
+        <v>251.1319804478079</v>
       </c>
       <c r="H40" t="n">
-        <v>42.39600029245378</v>
+        <v>115.2831272035355</v>
       </c>
       <c r="I40" t="n">
         <v>42.39600029245378</v>
@@ -7335,49 +7335,49 @@
         <v>161.8270914180507</v>
       </c>
       <c r="K40" t="n">
-        <v>242.8581411002464</v>
+        <v>490.1407502142685</v>
       </c>
       <c r="L40" t="n">
-        <v>405.4453443428341</v>
+        <v>598.692287920113</v>
       </c>
       <c r="M40" t="n">
-        <v>930.0958479619496</v>
+        <v>713.6741353720595</v>
       </c>
       <c r="N40" t="n">
-        <v>1043.620532038271</v>
+        <v>1225.231742290261</v>
       </c>
       <c r="O40" t="n">
-        <v>1522.880399639414</v>
+        <v>1674.253897017314</v>
       </c>
       <c r="P40" t="n">
-        <v>1919.439056802506</v>
+        <v>2070.812554180406</v>
       </c>
       <c r="Q40" t="n">
         <v>2119.800014622689</v>
       </c>
       <c r="R40" t="n">
-        <v>2112.953544269471</v>
+        <v>2119.800014622689</v>
       </c>
       <c r="S40" t="n">
-        <v>1958.396405816824</v>
+        <v>2119.800014622689</v>
       </c>
       <c r="T40" t="n">
-        <v>1718.876368028777</v>
+        <v>1880.279976834642</v>
       </c>
       <c r="U40" t="n">
-        <v>1601.866842434954</v>
+        <v>1600.144285483704</v>
       </c>
       <c r="V40" t="n">
-        <v>1320.155375042983</v>
+        <v>1318.432818091733</v>
       </c>
       <c r="W40" t="n">
-        <v>1045.302971215496</v>
+        <v>1043.580414264246</v>
       </c>
       <c r="X40" t="n">
-        <v>802.7390746613009</v>
+        <v>917.8818220388257</v>
       </c>
       <c r="Y40" t="n">
-        <v>576.396306351043</v>
+        <v>917.8818220388257</v>
       </c>
     </row>
     <row r="41">
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1138.388312735195</v>
+        <v>937.1249654122987</v>
       </c>
       <c r="C41" t="n">
-        <v>711.487582748495</v>
+        <v>937.1249654122987</v>
       </c>
       <c r="D41" t="n">
-        <v>711.487582748495</v>
+        <v>937.1249654122987</v>
       </c>
       <c r="E41" t="n">
-        <v>319.8560819119778</v>
+        <v>937.1249654122987</v>
       </c>
       <c r="F41" t="n">
-        <v>319.8560819119778</v>
+        <v>512.0007836016989</v>
       </c>
       <c r="G41" t="n">
-        <v>319.8560819119778</v>
+        <v>109.654475679754</v>
       </c>
       <c r="H41" t="n">
-        <v>42.3960002924538</v>
+        <v>42.39600029245378</v>
       </c>
       <c r="I41" t="n">
-        <v>83.4904134142339</v>
+        <v>83.4904134142338</v>
       </c>
       <c r="J41" t="n">
-        <v>220.1314621299489</v>
+        <v>220.1314621299487</v>
       </c>
       <c r="K41" t="n">
-        <v>433.165982831942</v>
+        <v>433.1659828319416</v>
       </c>
       <c r="L41" t="n">
-        <v>703.4506798655947</v>
+        <v>703.4506798655948</v>
       </c>
       <c r="M41" t="n">
         <v>1009.340767185891</v>
@@ -7426,37 +7426,37 @@
         <v>1320.93021977883</v>
       </c>
       <c r="O41" t="n">
-        <v>1612.988324273004</v>
+        <v>1612.988324273003</v>
       </c>
       <c r="P41" t="n">
-        <v>1856.646746816145</v>
+        <v>1856.646746816144</v>
       </c>
       <c r="Q41" t="n">
-        <v>2031.796003420095</v>
+        <v>2031.796003420094</v>
       </c>
       <c r="R41" t="n">
-        <v>2119.80001462269</v>
+        <v>2119.800014622689</v>
       </c>
       <c r="S41" t="n">
-        <v>2119.80001462269</v>
+        <v>2119.800014622689</v>
       </c>
       <c r="T41" t="n">
-        <v>1907.597726441198</v>
+        <v>2119.800014622689</v>
       </c>
       <c r="U41" t="n">
-        <v>1907.597726441198</v>
+        <v>2119.800014622689</v>
       </c>
       <c r="V41" t="n">
-        <v>1550.108311567448</v>
+        <v>1762.310599748939</v>
       </c>
       <c r="W41" t="n">
-        <v>1550.108311567448</v>
+        <v>1762.310599748939</v>
       </c>
       <c r="X41" t="n">
-        <v>1138.388312735195</v>
+        <v>1762.310599748939</v>
       </c>
       <c r="Y41" t="n">
-        <v>1138.388312735195</v>
+        <v>1356.973329703829</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>902.4081515166753</v>
+        <v>598.1558558515571</v>
       </c>
       <c r="C42" t="n">
-        <v>784.90224803418</v>
+        <v>480.6499523690619</v>
       </c>
       <c r="D42" t="n">
-        <v>681.062289549465</v>
+        <v>376.8099938843469</v>
       </c>
       <c r="E42" t="n">
-        <v>576.3603558224023</v>
+        <v>272.1080601572841</v>
       </c>
       <c r="F42" t="n">
-        <v>482.7145255053065</v>
+        <v>178.4622298401883</v>
       </c>
       <c r="G42" t="n">
-        <v>389.7269713721682</v>
+        <v>85.47467570705001</v>
       </c>
       <c r="H42" t="n">
-        <v>346.648295957572</v>
+        <v>42.39600029245378</v>
       </c>
       <c r="I42" t="n">
-        <v>366.6167969197835</v>
+        <v>62.36450125466526</v>
       </c>
       <c r="J42" t="n">
-        <v>444.9413693194562</v>
+        <v>140.6890736543379</v>
       </c>
       <c r="K42" t="n">
-        <v>591.51069792264</v>
+        <v>287.2584022575217</v>
       </c>
       <c r="L42" t="n">
-        <v>797.2290402391419</v>
+        <v>491.8663652808091</v>
       </c>
       <c r="M42" t="n">
-        <v>1039.142373431171</v>
+        <v>733.7796984728377</v>
       </c>
       <c r="N42" t="n">
-        <v>1563.792877050287</v>
+        <v>984.4371625576794</v>
       </c>
       <c r="O42" t="n">
-        <v>1789.484770057651</v>
+        <v>1210.129055565044</v>
       </c>
       <c r="P42" t="n">
-        <v>1967.480788280291</v>
+        <v>1663.228492615173</v>
       </c>
       <c r="Q42" t="n">
-        <v>2078.354543245092</v>
+        <v>1774.102247579974</v>
       </c>
       <c r="R42" t="n">
-        <v>2119.80001462269</v>
+        <v>1815.547718957572</v>
       </c>
       <c r="S42" t="n">
-        <v>2058.280292379587</v>
+        <v>1754.027996714468</v>
       </c>
       <c r="T42" t="n">
-        <v>1920.697962026685</v>
+        <v>1616.445666361567</v>
       </c>
       <c r="U42" t="n">
-        <v>1735.999911844299</v>
+        <v>1431.747616179181</v>
       </c>
       <c r="V42" t="n">
-        <v>1531.026772983565</v>
+        <v>1226.774477318447</v>
       </c>
       <c r="W42" t="n">
-        <v>1334.505395816783</v>
+        <v>1030.253100151665</v>
       </c>
       <c r="X42" t="n">
-        <v>1171.028049583446</v>
+        <v>866.7757539183275</v>
       </c>
       <c r="Y42" t="n">
-        <v>1031.335160936738</v>
+        <v>727.0828652716199</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>582.7032749401568</v>
+        <v>851.6041696036256</v>
       </c>
       <c r="C43" t="n">
-        <v>582.7032749401568</v>
+        <v>679.6316064825415</v>
       </c>
       <c r="D43" t="n">
-        <v>582.7032749401568</v>
+        <v>516.3148336093122</v>
       </c>
       <c r="E43" t="n">
-        <v>416.4950690930103</v>
+        <v>350.1066277621658</v>
       </c>
       <c r="F43" t="n">
-        <v>416.4950690930103</v>
+        <v>178.2448535367262</v>
       </c>
       <c r="G43" t="n">
-        <v>251.1319804478079</v>
+        <v>178.2448535367262</v>
       </c>
       <c r="H43" t="n">
-        <v>115.2831272035355</v>
+        <v>42.39600029245378</v>
       </c>
       <c r="I43" t="n">
-        <v>42.3960002924538</v>
+        <v>42.39600029245378</v>
       </c>
       <c r="J43" t="n">
-        <v>83.90537476982992</v>
+        <v>83.90537476982988</v>
       </c>
       <c r="K43" t="n">
-        <v>164.9364244520256</v>
+        <v>362.9905857463164</v>
       </c>
       <c r="L43" t="n">
-        <v>405.4453443428348</v>
+        <v>471.5421234521609</v>
       </c>
       <c r="M43" t="n">
-        <v>930.0958479619505</v>
+        <v>996.1926270712764</v>
       </c>
       <c r="N43" t="n">
-        <v>1043.620532038272</v>
+        <v>1507.750233989478</v>
       </c>
       <c r="O43" t="n">
-        <v>1522.880399639415</v>
+        <v>1987.010101590621</v>
       </c>
       <c r="P43" t="n">
-        <v>1919.439056802507</v>
+        <v>2070.812554180406</v>
       </c>
       <c r="Q43" t="n">
-        <v>2119.80001462269</v>
+        <v>2119.800014622689</v>
       </c>
       <c r="R43" t="n">
-        <v>2112.953544269471</v>
+        <v>2119.800014622689</v>
       </c>
       <c r="S43" t="n">
-        <v>1958.396405816825</v>
+        <v>1965.242876170043</v>
       </c>
       <c r="T43" t="n">
-        <v>1718.876368028778</v>
+        <v>1965.242876170043</v>
       </c>
       <c r="U43" t="n">
-        <v>1718.876368028778</v>
+        <v>1685.107184819105</v>
       </c>
       <c r="V43" t="n">
-        <v>1437.164900636806</v>
+        <v>1559.186438697373</v>
       </c>
       <c r="W43" t="n">
-        <v>1162.312496809319</v>
+        <v>1284.334034869886</v>
       </c>
       <c r="X43" t="n">
-        <v>919.7486002551244</v>
+        <v>1041.770138315691</v>
       </c>
       <c r="Y43" t="n">
-        <v>693.4058319448665</v>
+        <v>1041.770138315691</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>869.8664900249985</v>
+        <v>1714.46274457758</v>
       </c>
       <c r="C44" t="n">
-        <v>869.8664900249985</v>
+        <v>1287.56201459088</v>
       </c>
       <c r="D44" t="n">
-        <v>869.8664900249985</v>
+        <v>864.26939377588</v>
       </c>
       <c r="E44" t="n">
-        <v>869.8664900249985</v>
+        <v>864.26939377588</v>
       </c>
       <c r="F44" t="n">
-        <v>444.7423082143987</v>
+        <v>439.1452119652802</v>
       </c>
       <c r="G44" t="n">
-        <v>42.3960002924538</v>
+        <v>42.39600029245378</v>
       </c>
       <c r="H44" t="n">
-        <v>42.3960002924538</v>
+        <v>42.39600029245378</v>
       </c>
       <c r="I44" t="n">
-        <v>83.49041341423384</v>
+        <v>83.4904134142339</v>
       </c>
       <c r="J44" t="n">
         <v>220.1314621299488</v>
       </c>
       <c r="K44" t="n">
-        <v>433.1659828319418</v>
+        <v>433.1659828319417</v>
       </c>
       <c r="L44" t="n">
-        <v>703.4506798655951</v>
+        <v>703.4506798655943</v>
       </c>
       <c r="M44" t="n">
-        <v>1009.340767185891</v>
+        <v>1009.34076718589</v>
       </c>
       <c r="N44" t="n">
-        <v>1320.930219778831</v>
+        <v>1320.930219778829</v>
       </c>
       <c r="O44" t="n">
-        <v>1612.988324273004</v>
+        <v>1612.988324273003</v>
       </c>
       <c r="P44" t="n">
-        <v>1856.646746816145</v>
+        <v>1856.646746816144</v>
       </c>
       <c r="Q44" t="n">
-        <v>2031.796003420095</v>
+        <v>2031.796003420094</v>
       </c>
       <c r="R44" t="n">
-        <v>2119.80001462269</v>
+        <v>2119.800014622689</v>
       </c>
       <c r="S44" t="n">
-        <v>2119.80001462269</v>
+        <v>2119.800014622689</v>
       </c>
       <c r="T44" t="n">
-        <v>2091.443474061291</v>
+        <v>2119.800014622689</v>
       </c>
       <c r="U44" t="n">
-        <v>2091.443474061291</v>
+        <v>2119.800014622689</v>
       </c>
       <c r="V44" t="n">
-        <v>2091.443474061291</v>
+        <v>2119.800014622689</v>
       </c>
       <c r="W44" t="n">
-        <v>1695.052124361638</v>
+        <v>2119.800014622689</v>
       </c>
       <c r="X44" t="n">
-        <v>1695.052124361638</v>
+        <v>2119.800014622689</v>
       </c>
       <c r="Y44" t="n">
-        <v>1289.714854316529</v>
+        <v>1714.46274457758</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>902.4081515166753</v>
+        <v>598.1558558515571</v>
       </c>
       <c r="C45" t="n">
-        <v>784.90224803418</v>
+        <v>480.6499523690619</v>
       </c>
       <c r="D45" t="n">
-        <v>681.062289549465</v>
+        <v>376.8099938843469</v>
       </c>
       <c r="E45" t="n">
-        <v>576.3603558224023</v>
+        <v>272.1080601572841</v>
       </c>
       <c r="F45" t="n">
-        <v>482.7145255053065</v>
+        <v>178.4622298401883</v>
       </c>
       <c r="G45" t="n">
-        <v>389.7269713721682</v>
+        <v>85.47467570705001</v>
       </c>
       <c r="H45" t="n">
-        <v>346.648295957572</v>
+        <v>42.39600029245378</v>
       </c>
       <c r="I45" t="n">
-        <v>366.6167969197835</v>
+        <v>62.36450125466526</v>
       </c>
       <c r="J45" t="n">
-        <v>444.9413693194562</v>
+        <v>140.6890736543379</v>
       </c>
       <c r="K45" t="n">
-        <v>591.51069792264</v>
+        <v>287.2584022575217</v>
       </c>
       <c r="L45" t="n">
-        <v>796.1186609459276</v>
+        <v>491.8663652808091</v>
       </c>
       <c r="M45" t="n">
-        <v>1038.031994137956</v>
+        <v>733.7796984728377</v>
       </c>
       <c r="N45" t="n">
-        <v>1288.689458222798</v>
+        <v>984.4371625576794</v>
       </c>
       <c r="O45" t="n">
-        <v>1789.484770057651</v>
+        <v>1210.129055565044</v>
       </c>
       <c r="P45" t="n">
-        <v>1967.480788280291</v>
+        <v>1388.125073787684</v>
       </c>
       <c r="Q45" t="n">
-        <v>2078.354543245092</v>
+        <v>1774.102247579974</v>
       </c>
       <c r="R45" t="n">
-        <v>2119.80001462269</v>
+        <v>1815.547718957572</v>
       </c>
       <c r="S45" t="n">
-        <v>2058.280292379587</v>
+        <v>1754.027996714468</v>
       </c>
       <c r="T45" t="n">
-        <v>1920.697962026685</v>
+        <v>1616.445666361567</v>
       </c>
       <c r="U45" t="n">
-        <v>1735.999911844299</v>
+        <v>1431.747616179181</v>
       </c>
       <c r="V45" t="n">
-        <v>1531.026772983565</v>
+        <v>1226.774477318447</v>
       </c>
       <c r="W45" t="n">
-        <v>1334.505395816783</v>
+        <v>1030.253100151665</v>
       </c>
       <c r="X45" t="n">
-        <v>1171.028049583446</v>
+        <v>866.7757539183275</v>
       </c>
       <c r="Y45" t="n">
-        <v>1031.335160936738</v>
+        <v>727.0828652716199</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>917.9926109344701</v>
+        <v>844.9946951277439</v>
       </c>
       <c r="C46" t="n">
-        <v>746.0200478133861</v>
+        <v>844.9946951277439</v>
       </c>
       <c r="D46" t="n">
-        <v>582.7032749401568</v>
+        <v>681.6779222545146</v>
       </c>
       <c r="E46" t="n">
-        <v>416.4950690930103</v>
+        <v>515.4697164073681</v>
       </c>
       <c r="F46" t="n">
-        <v>416.4950690930103</v>
+        <v>343.6079421819285</v>
       </c>
       <c r="G46" t="n">
-        <v>251.1319804478079</v>
+        <v>178.2448535367262</v>
       </c>
       <c r="H46" t="n">
-        <v>115.2831272035355</v>
+        <v>42.39600029245378</v>
       </c>
       <c r="I46" t="n">
-        <v>42.3960002924538</v>
+        <v>42.39600029245378</v>
       </c>
       <c r="J46" t="n">
-        <v>161.8270914180508</v>
+        <v>161.8270914180507</v>
       </c>
       <c r="K46" t="n">
-        <v>242.8581411002465</v>
+        <v>242.8581411002464</v>
       </c>
       <c r="L46" t="n">
-        <v>727.7985723972561</v>
+        <v>727.798572397256</v>
       </c>
       <c r="M46" t="n">
-        <v>1252.449076016372</v>
+        <v>1252.449076016371</v>
       </c>
       <c r="N46" t="n">
-        <v>1365.973760092693</v>
+        <v>1764.006682934573</v>
       </c>
       <c r="O46" t="n">
-        <v>1522.880399639415</v>
+        <v>1987.010101590621</v>
       </c>
       <c r="P46" t="n">
-        <v>1919.439056802507</v>
+        <v>2070.812554180406</v>
       </c>
       <c r="Q46" t="n">
-        <v>2119.80001462269</v>
+        <v>2119.800014622689</v>
       </c>
       <c r="R46" t="n">
         <v>2112.953544269471</v>
       </c>
       <c r="S46" t="n">
-        <v>1958.396405816825</v>
+        <v>1958.396405816824</v>
       </c>
       <c r="T46" t="n">
-        <v>1718.876368028778</v>
+        <v>1958.396405816824</v>
       </c>
       <c r="U46" t="n">
-        <v>1718.876368028778</v>
+        <v>1958.396405816824</v>
       </c>
       <c r="V46" t="n">
-        <v>1437.164900636806</v>
+        <v>1676.684938424853</v>
       </c>
       <c r="W46" t="n">
-        <v>1162.312496809319</v>
+        <v>1401.832534597366</v>
       </c>
       <c r="X46" t="n">
-        <v>919.7486002551244</v>
+        <v>1159.268638043171</v>
       </c>
       <c r="Y46" t="n">
-        <v>917.9926109344701</v>
+        <v>932.925869732913</v>
       </c>
     </row>
   </sheetData>
@@ -8771,7 +8771,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>277.8822412398877</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8783,7 +8783,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>277.8822412398879</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8847,16 +8847,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>145.0435510204577</v>
       </c>
       <c r="L13" t="n">
-        <v>380.1908016072373</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>154.9618254768417</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>402.0534574160406</v>
@@ -8865,10 +8865,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9002,7 +9002,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9011,7 +9011,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>277.8822412398877</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9026,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>254.187992912199</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -9093,16 +9093,16 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M16" t="n">
-        <v>413.8067234011807</v>
+        <v>365.4077162216931</v>
       </c>
       <c r="N16" t="n">
-        <v>37.73909208169623</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -9245,7 +9245,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>277.8822412398878</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9254,10 +9254,10 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>276.760645994216</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1.121595245671642</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -9321,25 +9321,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L19" t="n">
-        <v>145.0435510204578</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>413.806723401181</v>
       </c>
       <c r="N19" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>381.5174992961649</v>
+        <v>122.0431229374416</v>
       </c>
       <c r="P19" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>152.9025226039384</v>
@@ -9482,7 +9482,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>171.3615338813972</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>277.8822412398878</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>106.5207073584907</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9558,10 +9558,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L22" t="n">
         <v>380.1908016072373</v>
@@ -9570,13 +9570,13 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>319.8087294331997</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O22" t="n">
-        <v>381.5174992961649</v>
+        <v>286.6989115265209</v>
       </c>
       <c r="P22" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -9798,7 +9798,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>200.0547083780712</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -9813,10 +9813,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P25" t="n">
-        <v>47.152185774133</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9950,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>147.6672855537082</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.8822412398872</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10038,19 +10038,19 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>265.6568495193809</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>413.8067234011812</v>
+        <v>413.8067234011809</v>
       </c>
       <c r="N28" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P28" t="n">
-        <v>315.9153581548562</v>
+        <v>200.0547083780716</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -10196,10 +10196,10 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>277.8822412398877</v>
       </c>
       <c r="M30" t="n">
-        <v>277.8822412398874</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10269,25 +10269,25 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K31" t="n">
-        <v>145.0435510204575</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>120.716425248514</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>413.806723401181</v>
       </c>
       <c r="N31" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P31" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>152.9025226039384</v>
@@ -10442,13 +10442,13 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>277.8822412398877</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>277.8822412398872</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -10506,25 +10506,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K34" t="n">
-        <v>69.01484158293603</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L34" t="n">
-        <v>380.1908016072373</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>413.806723401181</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O34" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>132.4696912336541</v>
       </c>
       <c r="Q34" t="n">
         <v>152.9025226039384</v>
@@ -10667,7 +10667,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>277.8822412398877</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10685,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>277.8822412398872</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -10746,25 +10746,25 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>47.15218577413296</v>
       </c>
       <c r="L37" t="n">
-        <v>380.1908016072373</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>299.2727713133238</v>
+        <v>413.806723401181</v>
       </c>
       <c r="N37" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P37" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10898,13 +10898,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>277.8822412398875</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10913,7 +10913,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>254.187992912199</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10983,25 +10983,25 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L40" t="n">
-        <v>54.58148034014454</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>413.806723401181</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O40" t="n">
-        <v>381.5174992961649</v>
+        <v>350.9743549789017</v>
       </c>
       <c r="P40" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q40" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11144,19 +11144,19 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>1.121595245671017</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>276.7606459942161</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>277.8822412398878</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -11220,25 +11220,25 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>200.0547083780715</v>
       </c>
       <c r="L43" t="n">
-        <v>133.2902850353178</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>413.8067234011812</v>
+        <v>413.806723401181</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O43" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P43" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11390,13 +11390,13 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>277.8822412398874</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>277.8822412398878</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -11463,19 +11463,19 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M46" t="n">
-        <v>413.8067234011811</v>
+        <v>413.806723401181</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O46" t="n">
-        <v>55.90817802907287</v>
+        <v>122.6726013718267</v>
       </c>
       <c r="P46" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22561,7 +22561,7 @@
         <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
-        <v>0.142297892192675</v>
+        <v>0.142297892192687</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22798,7 +22798,7 @@
         <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
-        <v>0.142297892192675</v>
+        <v>0.142297892192687</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -23272,10 +23272,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>398.3228448427254</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>274.6854808033287</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23311,22 +23311,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>35.930446737182</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>361.3431531574957</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>119.4360345193154</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23430,7 +23430,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>144.0983731299524</v>
+        <v>163.7094577587503</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23472,16 +23472,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3343344374282</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
         <v>422.6317226868329</v>
@@ -23503,13 +23503,13 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>358.5410937784287</v>
       </c>
       <c r="H14" t="n">
         <v>274.6854808033287</v>
@@ -23548,22 +23548,22 @@
         <v>58.3678272055618</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>210.080265299677</v>
       </c>
       <c r="U14" t="n">
         <v>255.6135341540542</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>214.9584500473589</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23664,10 +23664,10 @@
         <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>163.7094577587503</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>6.778005649686236</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>153.01156706812</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23715,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>117.272879982813</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>33.18619238321645</v>
       </c>
     </row>
     <row r="17">
@@ -23731,19 +23731,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>254.8621793417493</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>327.0785090769188</v>
       </c>
       <c r="E17" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>398.3228448427254</v>
@@ -23791,16 +23791,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
@@ -23898,16 +23898,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>122.7737877934629</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>134.4903647118297</v>
+        <v>19.21957443857619</v>
       </c>
       <c r="I19" t="n">
         <v>72.15825564197092</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>153.0115670681201</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>422.6317226868329</v>
@@ -23977,16 +23977,16 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>398.3228448427254</v>
       </c>
       <c r="H20" t="n">
-        <v>62.16552534685525</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>58.3678272055618</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>210.080265299677</v>
       </c>
       <c r="U20" t="n">
-        <v>255.6135341540542</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>401.2838973446586</v>
+        <v>103.9031949588738</v>
       </c>
     </row>
     <row r="21">
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>153.0353527608557</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24138,10 +24138,10 @@
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>163.7094577587503</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>134.4903647118297</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>6.778005649686236</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24189,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>85.77778323607615</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -24208,13 +24208,13 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>422.6317226868329</v>
+        <v>0.318065942748774</v>
       </c>
       <c r="D23" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>95.54898461997777</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
         <v>420.8729399924937</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>58.3678272055618</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>210.080265299677</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>255.6135341540542</v>
       </c>
       <c r="V23" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>153.0353527608557</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>163.7094577587503</v>
       </c>
       <c r="H25" t="n">
-        <v>134.4903647118297</v>
+        <v>20.06870774765416</v>
       </c>
       <c r="I25" t="n">
-        <v>72.15825564197091</v>
+        <v>72.15825564197092</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>6.778005649686236</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>153.01156706812</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24442,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>6.636967442020023</v>
       </c>
       <c r="C26" t="n">
-        <v>67.68902055375344</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24457,7 +24457,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
-        <v>398.3228448427254</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>274.6854808033287</v>
@@ -24493,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>58.36782720556179</v>
+        <v>58.3678272055618</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>210.080265299677</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>255.6135341540542</v>
       </c>
       <c r="V26" t="n">
         <v>353.914520725013</v>
@@ -24508,10 +24508,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="27">
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>155.0612053751082</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
         <v>161.683605144497</v>
@@ -24612,16 +24612,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>134.4903647118297</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>72.15825564197091</v>
+        <v>72.15825564197092</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>6.778005649686236</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24657,13 +24657,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>10.56000364135195</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24679,16 +24679,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>415.6498806486147</v>
+        <v>116.285834384102</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>420.8729399924937</v>
@@ -24697,7 +24697,7 @@
         <v>398.3228448427254</v>
       </c>
       <c r="H29" t="n">
-        <v>71.93653872206914</v>
+        <v>274.6854808033287</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24736,19 +24736,19 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>255.6135341540542</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="30">
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>40.60793737885894</v>
       </c>
       <c r="D31" t="n">
-        <v>153.0353527608557</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>163.7094577587503</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>134.4903647118297</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>72.15825564197091</v>
+        <v>72.15825564197092</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>6.778005649686236</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>237.124837410167</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3343344374282</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="32">
@@ -24916,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>419.0596946068497</v>
+        <v>236.6625124333711</v>
       </c>
       <c r="E32" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>285.9083862038322</v>
+        <v>398.3228448427254</v>
       </c>
       <c r="H32" t="n">
-        <v>274.6854808033287</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,19 +24967,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>58.3678272055618</v>
       </c>
       <c r="T32" t="n">
         <v>210.080265299677</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>255.6135341540542</v>
       </c>
       <c r="V32" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
         <v>407.6027988439302</v>
@@ -25074,16 +25074,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>153.0353527608557</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
@@ -25095,7 +25095,7 @@
         <v>134.4903647118297</v>
       </c>
       <c r="I34" t="n">
-        <v>72.15825564197091</v>
+        <v>72.15825564197092</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>6.778005649686236</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>122.5391618748993</v>
       </c>
     </row>
     <row r="35">
@@ -25153,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>398.3228448427254</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>274.6854808033287</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25210,19 +25210,19 @@
         <v>210.080265299677</v>
       </c>
       <c r="U35" t="n">
-        <v>255.6135341540542</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>253.3691573918368</v>
+        <v>259.2758593483107</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="36">
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>46.37571205032211</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>93.50213592237527</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>163.7094577587503</v>
       </c>
       <c r="H37" t="n">
-        <v>134.4903647118297</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>72.15825564197091</v>
+        <v>72.15825564197092</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>6.778005649686236</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>237.124837410167</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
         <v>419.0596946068497</v>
@@ -25405,10 +25405,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>398.3228448427254</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>274.6854808033287</v>
+        <v>73.30601800442085</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,19 +25441,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>58.36782720556179</v>
+        <v>58.3678272055618</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>210.080265299677</v>
       </c>
       <c r="U38" t="n">
-        <v>255.6135341540542</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>193.046026839437</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>163.7094577587503</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>134.4903647118297</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>72.15825564197091</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>6.778005649686236</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>153.01156706812</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>161.4949040995438</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>115.6966512854869</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -25627,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>34.00198462546894</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>398.3228448427254</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>208.0995901699015</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>58.36782720556178</v>
+        <v>58.3678272055618</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>210.080265299677</v>
       </c>
       <c r="U41" t="n">
         <v>255.6135341540542</v>
@@ -25693,10 +25693,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>78.66877759028243</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.7094577587503</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>72.15825564197092</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>6.778005649686236</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.124837410167</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3343344374282</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>154.2328140575367</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -25864,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>421.717170453621</v>
@@ -25879,7 +25879,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>5.541125286627334</v>
       </c>
       <c r="H44" t="n">
         <v>274.6854808033287</v>
@@ -25915,10 +25915,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>58.36782720556178</v>
+        <v>58.3678272055618</v>
       </c>
       <c r="T44" t="n">
-        <v>182.0072901438924</v>
+        <v>210.080265299677</v>
       </c>
       <c r="U44" t="n">
         <v>255.6135341540542</v>
@@ -25927,7 +25927,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
         <v>407.6027988439302</v>
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>101.2124461658275</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26034,7 +26034,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>72.15825564197092</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>237.124837410167</v>
       </c>
       <c r="U46" t="n">
         <v>277.3343344374282</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.3409111997076</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>333712.3930309401</v>
+        <v>333712.3930309403</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>333712.3930309401</v>
+        <v>333712.3930309402</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>333712.3930309403</v>
+        <v>333712.3930309402</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>333712.3930309403</v>
+        <v>333712.3930309402</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>333712.3930309403</v>
+        <v>333712.3930309402</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>333712.3930309402</v>
+        <v>333712.3930309403</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>333712.3930309401</v>
+        <v>333712.3930309402</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>333712.3930309403</v>
+        <v>333712.3930309402</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>333712.3930309403</v>
+        <v>333712.3930309402</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>333712.3930309403</v>
+        <v>333712.3930309402</v>
       </c>
     </row>
   </sheetData>
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>487704.0069784228</v>
+        <v>487704.0069784231</v>
       </c>
       <c r="C2" t="n">
-        <v>487704.0069784228</v>
+        <v>487704.0069784231</v>
       </c>
       <c r="D2" t="n">
         <v>487705.1569012871</v>
       </c>
       <c r="E2" t="n">
+        <v>288421.0818212275</v>
+      </c>
+      <c r="F2" t="n">
         <v>288421.0818212273</v>
-      </c>
-      <c r="F2" t="n">
-        <v>288421.0818212272</v>
       </c>
       <c r="G2" t="n">
         <v>288421.0818212273</v>
       </c>
       <c r="H2" t="n">
-        <v>288421.0818212274</v>
+        <v>288421.0818212273</v>
       </c>
       <c r="I2" t="n">
         <v>288421.0818212273</v>
@@ -26352,7 +26352,7 @@
         <v>288421.0818212273</v>
       </c>
       <c r="O2" t="n">
-        <v>288421.0818212274</v>
+        <v>288421.0818212273</v>
       </c>
       <c r="P2" t="n">
         <v>288421.0818212274</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>36763.52824278933</v>
+        <v>36763.52824278935</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132065.6607110081</v>
+        <v>132065.6607110082</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26429,7 +26429,7 @@
         <v>28765.36626379861</v>
       </c>
       <c r="F4" t="n">
-        <v>28765.3662637986</v>
+        <v>28765.36626379861</v>
       </c>
       <c r="G4" t="n">
         <v>28765.36626379861</v>
@@ -26444,22 +26444,22 @@
         <v>28765.36626379861</v>
       </c>
       <c r="K4" t="n">
-        <v>28765.3662637986</v>
+        <v>28765.36626379861</v>
       </c>
       <c r="L4" t="n">
         <v>28765.3662637986</v>
       </c>
       <c r="M4" t="n">
-        <v>28765.3662637986</v>
+        <v>28765.36626379861</v>
       </c>
       <c r="N4" t="n">
         <v>28765.36626379861</v>
       </c>
       <c r="O4" t="n">
-        <v>28765.3662637986</v>
+        <v>28765.36626379862</v>
       </c>
       <c r="P4" t="n">
-        <v>28765.36626379861</v>
+        <v>28765.36626379862</v>
       </c>
     </row>
     <row r="5">
@@ -26478,10 +26478,10 @@
         <v>34551.47122049312</v>
       </c>
       <c r="E5" t="n">
-        <v>42919.10753132479</v>
+        <v>42919.10753132481</v>
       </c>
       <c r="F5" t="n">
-        <v>42919.10753132479</v>
+        <v>42919.10753132481</v>
       </c>
       <c r="G5" t="n">
         <v>42919.10753132481</v>
@@ -26490,10 +26490,10 @@
         <v>42919.10753132481</v>
       </c>
       <c r="I5" t="n">
+        <v>42919.1075313248</v>
+      </c>
+      <c r="J5" t="n">
         <v>42919.10753132481</v>
-      </c>
-      <c r="J5" t="n">
-        <v>42919.10753132482</v>
       </c>
       <c r="K5" t="n">
         <v>42919.10753132481</v>
@@ -26508,10 +26508,10 @@
         <v>42919.10753132481</v>
       </c>
       <c r="O5" t="n">
-        <v>42919.10753132483</v>
+        <v>42919.10753132481</v>
       </c>
       <c r="P5" t="n">
-        <v>42919.10753132483</v>
+        <v>42919.10753132481</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>102297.1642028359</v>
+        <v>102275.4810827449</v>
       </c>
       <c r="C6" t="n">
-        <v>139060.6924456253</v>
+        <v>139039.0093255343</v>
       </c>
       <c r="D6" t="n">
-        <v>136765.3604247871</v>
+        <v>136743.6806868219</v>
       </c>
       <c r="E6" t="n">
-        <v>-301709.6084031446</v>
+        <v>-302317.4177736981</v>
       </c>
       <c r="F6" t="n">
-        <v>216736.6080261038</v>
+        <v>216128.7986555502</v>
       </c>
       <c r="G6" t="n">
-        <v>216736.6080261039</v>
+        <v>216128.7986555502</v>
       </c>
       <c r="H6" t="n">
-        <v>216736.608026104</v>
+        <v>216128.7986555502</v>
       </c>
       <c r="I6" t="n">
-        <v>216736.6080261039</v>
+        <v>216128.7986555502</v>
       </c>
       <c r="J6" t="n">
-        <v>216736.608026104</v>
+        <v>216128.7986555503</v>
       </c>
       <c r="K6" t="n">
-        <v>216736.608026104</v>
+        <v>216128.7986555503</v>
       </c>
       <c r="L6" t="n">
-        <v>216736.608026104</v>
+        <v>216128.7986555503</v>
       </c>
       <c r="M6" t="n">
-        <v>84670.94731509575</v>
+        <v>84063.13794454205</v>
       </c>
       <c r="N6" t="n">
-        <v>216736.6080261039</v>
+        <v>216128.7986555502</v>
       </c>
       <c r="O6" t="n">
-        <v>216736.608026104</v>
+        <v>216128.7986555502</v>
       </c>
       <c r="P6" t="n">
-        <v>216736.6080261039</v>
+        <v>216128.7986555503</v>
       </c>
     </row>
   </sheetData>
@@ -26746,7 +26746,7 @@
         <v>42.37941378408804</v>
       </c>
       <c r="E3" t="n">
-        <v>490.7407022504556</v>
+        <v>490.7407022504557</v>
       </c>
       <c r="F3" t="n">
         <v>490.7407022504557</v>
@@ -26758,28 +26758,28 @@
         <v>490.7407022504557</v>
       </c>
       <c r="I3" t="n">
-        <v>490.7407022504558</v>
+        <v>490.7407022504557</v>
       </c>
       <c r="J3" t="n">
-        <v>490.7407022504559</v>
+        <v>490.7407022504557</v>
       </c>
       <c r="K3" t="n">
-        <v>490.7407022504559</v>
+        <v>490.7407022504557</v>
       </c>
       <c r="L3" t="n">
-        <v>490.7407022504559</v>
+        <v>490.7407022504557</v>
       </c>
       <c r="M3" t="n">
-        <v>490.7407022504559</v>
+        <v>490.7407022504557</v>
       </c>
       <c r="N3" t="n">
-        <v>490.7407022504559</v>
+        <v>490.7407022504557</v>
       </c>
       <c r="O3" t="n">
-        <v>490.7407022504559</v>
+        <v>490.7407022504557</v>
       </c>
       <c r="P3" t="n">
-        <v>490.7407022504559</v>
+        <v>490.7407022504557</v>
       </c>
     </row>
     <row r="4">
@@ -26798,10 +26798,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>529.950003655672</v>
+        <v>529.9500036556723</v>
       </c>
       <c r="F4" t="n">
-        <v>529.950003655672</v>
+        <v>529.9500036556723</v>
       </c>
       <c r="G4" t="n">
         <v>529.9500036556723</v>
@@ -26810,10 +26810,10 @@
         <v>529.9500036556723</v>
       </c>
       <c r="I4" t="n">
+        <v>529.9500036556722</v>
+      </c>
+      <c r="J4" t="n">
         <v>529.9500036556723</v>
-      </c>
-      <c r="J4" t="n">
-        <v>529.9500036556725</v>
       </c>
       <c r="K4" t="n">
         <v>529.9500036556723</v>
@@ -26828,10 +26828,10 @@
         <v>529.9500036556723</v>
       </c>
       <c r="O4" t="n">
-        <v>529.9500036556725</v>
+        <v>529.9500036556723</v>
       </c>
       <c r="P4" t="n">
-        <v>529.9500036556725</v>
+        <v>529.9500036556723</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>4.22765758861398</v>
       </c>
       <c r="E3" t="n">
-        <v>448.3612884663676</v>
+        <v>448.3612884663677</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>529.9500036556722</v>
+        <v>529.9500036556723</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>529.9500036556722</v>
+        <v>529.9500036556723</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>529.9500036556722</v>
+        <v>529.9500036556723</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27411,7 +27411,7 @@
         <v>14.10849161526705</v>
       </c>
       <c r="M2" t="n">
-        <v>10.50014909015128</v>
+        <v>10.50014909015127</v>
       </c>
       <c r="N2" t="n">
         <v>9.912735448118685</v>
@@ -27478,19 +27478,19 @@
         <v>52.04978355868677</v>
       </c>
       <c r="I3" t="n">
-        <v>13.34699725816537</v>
+        <v>13.34699725816536</v>
       </c>
       <c r="J3" t="n">
         <v>12.85802961440214</v>
       </c>
       <c r="K3" t="n">
-        <v>9.147977155514766</v>
+        <v>9.147977155514765</v>
       </c>
       <c r="L3" t="n">
         <v>4.697136804258392</v>
       </c>
       <c r="M3" t="n">
-        <v>2.30407338579462</v>
+        <v>2.304073385794617</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27499,7 +27499,7 @@
         <v>3.647188605845983</v>
       </c>
       <c r="P3" t="n">
-        <v>6.100547230880082</v>
+        <v>6.10054723088008</v>
       </c>
       <c r="Q3" t="n">
         <v>12.27186175772305</v>
@@ -31047,16 +31047,16 @@
         <v>1.570740394520195</v>
       </c>
       <c r="I2" t="n">
-        <v>5.912947058195031</v>
+        <v>5.912947058195032</v>
       </c>
       <c r="J2" t="n">
-        <v>13.01741755736931</v>
+        <v>13.01741755736932</v>
       </c>
       <c r="K2" t="n">
         <v>19.50973450110566</v>
       </c>
       <c r="L2" t="n">
-        <v>24.20355081735587</v>
+        <v>24.20355081735588</v>
       </c>
       <c r="M2" t="n">
         <v>26.93111380928054</v>
@@ -31120,7 +31120,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.08206226804309515</v>
+        <v>0.08206226804309516</v>
       </c>
       <c r="H3" t="n">
         <v>0.7925487466267348</v>
@@ -31129,7 +31129,7 @@
         <v>2.825389491834636</v>
       </c>
       <c r="J3" t="n">
-        <v>7.753084718931197</v>
+        <v>7.753084718931198</v>
       </c>
       <c r="K3" t="n">
         <v>13.25125667781857</v>
@@ -31156,13 +31156,13 @@
         <v>5.095059063237085</v>
       </c>
       <c r="S3" t="n">
-        <v>1.524270636677665</v>
+        <v>1.524270636677666</v>
       </c>
       <c r="T3" t="n">
         <v>0.3307685277701948</v>
       </c>
       <c r="U3" t="n">
-        <v>0.00539883342388784</v>
+        <v>0.005398833423887841</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31202,16 +31202,16 @@
         <v>0.06879824887708436</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6116789763798959</v>
+        <v>0.611678976379896</v>
       </c>
       <c r="I4" t="n">
         <v>2.068950975321774</v>
       </c>
       <c r="J4" t="n">
-        <v>4.864036195609864</v>
+        <v>4.864036195609865</v>
       </c>
       <c r="K4" t="n">
-        <v>7.99310564226489</v>
+        <v>7.993105642264891</v>
       </c>
       <c r="L4" t="n">
         <v>10.22842329214398</v>
@@ -31223,22 +31223,22 @@
         <v>10.52800839407238</v>
       </c>
       <c r="O4" t="n">
-        <v>9.7243197594628</v>
+        <v>9.724319759462801</v>
       </c>
       <c r="P4" t="n">
-        <v>8.320835482370272</v>
+        <v>8.320835482370274</v>
       </c>
       <c r="Q4" t="n">
-        <v>5.760915185516582</v>
+        <v>5.760915185516583</v>
       </c>
       <c r="R4" t="n">
-        <v>3.093419444964174</v>
+        <v>3.093419444964175</v>
       </c>
       <c r="S4" t="n">
         <v>1.198965846339733</v>
       </c>
       <c r="T4" t="n">
-        <v>0.2939561542929967</v>
+        <v>0.2939561542929968</v>
       </c>
       <c r="U4" t="n">
         <v>0.003752631756931878</v>
@@ -31752,13 +31752,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.972826943720423</v>
+        <v>1.972826943720424</v>
       </c>
       <c r="H11" t="n">
         <v>20.20421393737679</v>
       </c>
       <c r="I11" t="n">
-        <v>76.05741074778169</v>
+        <v>76.0574107477817</v>
       </c>
       <c r="J11" t="n">
         <v>167.4412208145914</v>
@@ -31770,28 +31770,28 @@
         <v>311.326887921161</v>
       </c>
       <c r="M11" t="n">
-        <v>346.411149081549</v>
+        <v>346.4111490815491</v>
       </c>
       <c r="N11" t="n">
-        <v>352.0164436353947</v>
+        <v>352.0164436353948</v>
       </c>
       <c r="O11" t="n">
-        <v>332.3991457137747</v>
+        <v>332.3991457137748</v>
       </c>
       <c r="P11" t="n">
-        <v>283.6949805406767</v>
+        <v>283.6949805406768</v>
       </c>
       <c r="Q11" t="n">
         <v>213.043115618689</v>
       </c>
       <c r="R11" t="n">
-        <v>123.9255905034781</v>
+        <v>123.9255905034782</v>
       </c>
       <c r="S11" t="n">
-        <v>44.95579398002918</v>
+        <v>44.9557939800292</v>
       </c>
       <c r="T11" t="n">
-        <v>8.636049946136156</v>
+        <v>8.63604994613616</v>
       </c>
       <c r="U11" t="n">
         <v>0.1578261554976338</v>
@@ -31837,43 +31837,43 @@
         <v>10.19444364486324</v>
       </c>
       <c r="I12" t="n">
-        <v>36.3425897421328</v>
+        <v>36.34258974213282</v>
       </c>
       <c r="J12" t="n">
-        <v>99.72684402997233</v>
+        <v>99.72684402997236</v>
       </c>
       <c r="K12" t="n">
         <v>170.4490607052361</v>
       </c>
       <c r="L12" t="n">
-        <v>229.1897968387623</v>
+        <v>229.1897968387624</v>
       </c>
       <c r="M12" t="n">
-        <v>267.4536827264983</v>
+        <v>267.4536827264984</v>
       </c>
       <c r="N12" t="n">
-        <v>274.5323858749978</v>
+        <v>274.5323858749979</v>
       </c>
       <c r="O12" t="n">
-        <v>251.1434988205704</v>
+        <v>251.1434988205705</v>
       </c>
       <c r="P12" t="n">
-        <v>201.5647990054749</v>
+        <v>201.564799005475</v>
       </c>
       <c r="Q12" t="n">
         <v>134.7407301726157</v>
       </c>
       <c r="R12" t="n">
-        <v>65.53703189676843</v>
+        <v>65.53703189676844</v>
       </c>
       <c r="S12" t="n">
         <v>19.60647994368565</v>
       </c>
       <c r="T12" t="n">
-        <v>4.254629295926119</v>
+        <v>4.25462929592612</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06944443899770601</v>
+        <v>0.06944443899770603</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,25 +31910,25 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8849422499598379</v>
+        <v>0.8849422499598382</v>
       </c>
       <c r="H13" t="n">
-        <v>7.867941095097474</v>
+        <v>7.867941095097476</v>
       </c>
       <c r="I13" t="n">
-        <v>26.61262693515586</v>
+        <v>26.61262693515587</v>
       </c>
       <c r="J13" t="n">
-        <v>62.56541707216054</v>
+        <v>62.56541707216055</v>
       </c>
       <c r="K13" t="n">
         <v>102.814199586243</v>
       </c>
       <c r="L13" t="n">
-        <v>131.5667777803926</v>
+        <v>131.5667777803927</v>
       </c>
       <c r="M13" t="n">
-        <v>138.7187201459771</v>
+        <v>138.7187201459772</v>
       </c>
       <c r="N13" t="n">
         <v>135.4202990324906</v>
@@ -31940,19 +31940,19 @@
         <v>107.0297426678698</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.1018460398188</v>
+        <v>74.10184603981881</v>
       </c>
       <c r="R13" t="n">
-        <v>39.79022153001234</v>
+        <v>39.79022153001235</v>
       </c>
       <c r="S13" t="n">
-        <v>15.42212993793644</v>
+        <v>15.42212993793645</v>
       </c>
       <c r="T13" t="n">
-        <v>3.781116886192034</v>
+        <v>3.781116886192035</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04826957727053667</v>
+        <v>0.04826957727053668</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.972826943720424</v>
+        <v>1.972826943720423</v>
       </c>
       <c r="H17" t="n">
         <v>20.20421393737679</v>
@@ -32244,28 +32244,28 @@
         <v>311.326887921161</v>
       </c>
       <c r="M17" t="n">
-        <v>346.4111490815491</v>
+        <v>346.411149081549</v>
       </c>
       <c r="N17" t="n">
         <v>352.0164436353948</v>
       </c>
       <c r="O17" t="n">
-        <v>332.3991457137748</v>
+        <v>332.3991457137747</v>
       </c>
       <c r="P17" t="n">
-        <v>283.6949805406768</v>
+        <v>283.6949805406767</v>
       </c>
       <c r="Q17" t="n">
         <v>213.043115618689</v>
       </c>
       <c r="R17" t="n">
-        <v>123.9255905034782</v>
+        <v>123.9255905034781</v>
       </c>
       <c r="S17" t="n">
-        <v>44.9557939800292</v>
+        <v>44.95579398002919</v>
       </c>
       <c r="T17" t="n">
-        <v>8.63604994613616</v>
+        <v>8.636049946136158</v>
       </c>
       <c r="U17" t="n">
         <v>0.1578261554976338</v>
@@ -32311,10 +32311,10 @@
         <v>10.19444364486324</v>
       </c>
       <c r="I18" t="n">
-        <v>36.34258974213282</v>
+        <v>36.34258974213281</v>
       </c>
       <c r="J18" t="n">
-        <v>99.72684402997236</v>
+        <v>99.72684402997234</v>
       </c>
       <c r="K18" t="n">
         <v>170.4490607052361</v>
@@ -32323,7 +32323,7 @@
         <v>229.1897968387624</v>
       </c>
       <c r="M18" t="n">
-        <v>267.4536827264984</v>
+        <v>267.4536827264983</v>
       </c>
       <c r="N18" t="n">
         <v>274.5323858749979</v>
@@ -32332,19 +32332,19 @@
         <v>251.1434988205705</v>
       </c>
       <c r="P18" t="n">
-        <v>201.564799005475</v>
+        <v>201.5647990054749</v>
       </c>
       <c r="Q18" t="n">
         <v>134.7407301726157</v>
       </c>
       <c r="R18" t="n">
-        <v>65.53703189676844</v>
+        <v>65.53703189676843</v>
       </c>
       <c r="S18" t="n">
         <v>19.60647994368565</v>
       </c>
       <c r="T18" t="n">
-        <v>4.25462929592612</v>
+        <v>4.254629295926119</v>
       </c>
       <c r="U18" t="n">
         <v>0.06944443899770603</v>
@@ -32384,16 +32384,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8849422499598382</v>
+        <v>0.8849422499598381</v>
       </c>
       <c r="H19" t="n">
-        <v>7.867941095097476</v>
+        <v>7.867941095097475</v>
       </c>
       <c r="I19" t="n">
-        <v>26.61262693515587</v>
+        <v>26.61262693515586</v>
       </c>
       <c r="J19" t="n">
-        <v>62.56541707216055</v>
+        <v>62.56541707216054</v>
       </c>
       <c r="K19" t="n">
         <v>102.814199586243</v>
@@ -32402,7 +32402,7 @@
         <v>131.5667777803927</v>
       </c>
       <c r="M19" t="n">
-        <v>138.7187201459772</v>
+        <v>138.7187201459771</v>
       </c>
       <c r="N19" t="n">
         <v>135.4202990324906</v>
@@ -32420,10 +32420,10 @@
         <v>39.79022153001235</v>
       </c>
       <c r="S19" t="n">
-        <v>15.42212993793645</v>
+        <v>15.42212993793644</v>
       </c>
       <c r="T19" t="n">
-        <v>3.781116886192035</v>
+        <v>3.781116886192034</v>
       </c>
       <c r="U19" t="n">
         <v>0.04826957727053668</v>
@@ -32703,19 +32703,19 @@
         <v>1.972826943720424</v>
       </c>
       <c r="H23" t="n">
-        <v>20.2042139373768</v>
+        <v>20.20421393737679</v>
       </c>
       <c r="I23" t="n">
-        <v>76.05741074778172</v>
+        <v>76.0574107477817</v>
       </c>
       <c r="J23" t="n">
-        <v>167.4412208145915</v>
+        <v>167.4412208145914</v>
       </c>
       <c r="K23" t="n">
-        <v>250.9509853422771</v>
+        <v>250.950985342277</v>
       </c>
       <c r="L23" t="n">
-        <v>311.3268879211611</v>
+        <v>311.326887921161</v>
       </c>
       <c r="M23" t="n">
         <v>346.4111490815491</v>
@@ -32730,19 +32730,19 @@
         <v>283.6949805406768</v>
       </c>
       <c r="Q23" t="n">
-        <v>213.0431156186891</v>
+        <v>213.043115618689</v>
       </c>
       <c r="R23" t="n">
         <v>123.9255905034782</v>
       </c>
       <c r="S23" t="n">
-        <v>44.95579398002921</v>
+        <v>44.9557939800292</v>
       </c>
       <c r="T23" t="n">
         <v>8.63604994613616</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1578261554976339</v>
+        <v>0.1578261554976338</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32821,7 +32821,7 @@
         <v>4.25462929592612</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06944443899770604</v>
+        <v>0.06944443899770603</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,13 +32861,13 @@
         <v>0.8849422499598382</v>
       </c>
       <c r="H25" t="n">
-        <v>7.867941095097477</v>
+        <v>7.867941095097476</v>
       </c>
       <c r="I25" t="n">
         <v>26.61262693515587</v>
       </c>
       <c r="J25" t="n">
-        <v>62.56541707216056</v>
+        <v>62.56541707216055</v>
       </c>
       <c r="K25" t="n">
         <v>102.814199586243</v>
@@ -32888,7 +32888,7 @@
         <v>107.0297426678698</v>
       </c>
       <c r="Q25" t="n">
-        <v>74.10184603981882</v>
+        <v>74.10184603981881</v>
       </c>
       <c r="R25" t="n">
         <v>39.79022153001235</v>
@@ -32940,46 +32940,46 @@
         <v>1.972826943720424</v>
       </c>
       <c r="H26" t="n">
-        <v>20.2042139373768</v>
+        <v>20.20421393737679</v>
       </c>
       <c r="I26" t="n">
-        <v>76.05741074778172</v>
+        <v>76.0574107477817</v>
       </c>
       <c r="J26" t="n">
-        <v>167.4412208145915</v>
+        <v>167.4412208145914</v>
       </c>
       <c r="K26" t="n">
-        <v>250.9509853422771</v>
+        <v>250.950985342277</v>
       </c>
       <c r="L26" t="n">
-        <v>311.3268879211611</v>
+        <v>311.326887921161</v>
       </c>
       <c r="M26" t="n">
-        <v>346.4111490815492</v>
+        <v>346.4111490815491</v>
       </c>
       <c r="N26" t="n">
-        <v>352.0164436353949</v>
+        <v>352.0164436353948</v>
       </c>
       <c r="O26" t="n">
         <v>332.3991457137748</v>
       </c>
       <c r="P26" t="n">
-        <v>283.6949805406769</v>
+        <v>283.6949805406768</v>
       </c>
       <c r="Q26" t="n">
-        <v>213.0431156186891</v>
+        <v>213.043115618689</v>
       </c>
       <c r="R26" t="n">
         <v>123.9255905034782</v>
       </c>
       <c r="S26" t="n">
-        <v>44.95579398002921</v>
+        <v>44.9557939800292</v>
       </c>
       <c r="T26" t="n">
-        <v>8.636049946136161</v>
+        <v>8.63604994613616</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1578261554976339</v>
+        <v>0.1578261554976338</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,19 +33016,19 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.055555472765132</v>
+        <v>1.055555472765131</v>
       </c>
       <c r="H27" t="n">
-        <v>10.19444364486325</v>
+        <v>10.19444364486324</v>
       </c>
       <c r="I27" t="n">
         <v>36.34258974213282</v>
       </c>
       <c r="J27" t="n">
-        <v>99.72684402997237</v>
+        <v>99.72684402997236</v>
       </c>
       <c r="K27" t="n">
-        <v>170.4490607052362</v>
+        <v>170.4490607052361</v>
       </c>
       <c r="L27" t="n">
         <v>229.1897968387624</v>
@@ -33040,7 +33040,7 @@
         <v>274.5323858749979</v>
       </c>
       <c r="O27" t="n">
-        <v>251.1434988205706</v>
+        <v>251.1434988205705</v>
       </c>
       <c r="P27" t="n">
         <v>201.564799005475</v>
@@ -33049,7 +33049,7 @@
         <v>134.7407301726157</v>
       </c>
       <c r="R27" t="n">
-        <v>65.53703189676845</v>
+        <v>65.53703189676844</v>
       </c>
       <c r="S27" t="n">
         <v>19.60647994368565</v>
@@ -33058,7 +33058,7 @@
         <v>4.25462929592612</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06944443899770604</v>
+        <v>0.06944443899770603</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,16 +33095,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8849422499598383</v>
+        <v>0.8849422499598382</v>
       </c>
       <c r="H28" t="n">
-        <v>7.867941095097478</v>
+        <v>7.867941095097476</v>
       </c>
       <c r="I28" t="n">
         <v>26.61262693515587</v>
       </c>
       <c r="J28" t="n">
-        <v>62.56541707216056</v>
+        <v>62.56541707216055</v>
       </c>
       <c r="K28" t="n">
         <v>102.814199586243</v>
@@ -33119,25 +33119,25 @@
         <v>135.4202990324906</v>
       </c>
       <c r="O28" t="n">
-        <v>125.0825645670507</v>
+        <v>125.0825645670506</v>
       </c>
       <c r="P28" t="n">
-        <v>107.0297426678699</v>
+        <v>107.0297426678698</v>
       </c>
       <c r="Q28" t="n">
-        <v>74.10184603981884</v>
+        <v>74.10184603981881</v>
       </c>
       <c r="R28" t="n">
-        <v>39.79022153001236</v>
+        <v>39.79022153001235</v>
       </c>
       <c r="S28" t="n">
         <v>15.42212993793645</v>
       </c>
       <c r="T28" t="n">
-        <v>3.781116886192036</v>
+        <v>3.781116886192035</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04826957727053669</v>
+        <v>0.04826957727053668</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33177,46 +33177,46 @@
         <v>1.972826943720424</v>
       </c>
       <c r="H29" t="n">
-        <v>20.2042139373768</v>
+        <v>20.20421393737679</v>
       </c>
       <c r="I29" t="n">
-        <v>76.05741074778172</v>
+        <v>76.0574107477817</v>
       </c>
       <c r="J29" t="n">
-        <v>167.4412208145915</v>
+        <v>167.4412208145914</v>
       </c>
       <c r="K29" t="n">
-        <v>250.9509853422771</v>
+        <v>250.950985342277</v>
       </c>
       <c r="L29" t="n">
-        <v>311.3268879211611</v>
+        <v>311.326887921161</v>
       </c>
       <c r="M29" t="n">
-        <v>346.4111490815492</v>
+        <v>346.4111490815491</v>
       </c>
       <c r="N29" t="n">
-        <v>352.0164436353949</v>
+        <v>352.0164436353948</v>
       </c>
       <c r="O29" t="n">
         <v>332.3991457137748</v>
       </c>
       <c r="P29" t="n">
-        <v>283.6949805406769</v>
+        <v>283.6949805406768</v>
       </c>
       <c r="Q29" t="n">
-        <v>213.0431156186891</v>
+        <v>213.043115618689</v>
       </c>
       <c r="R29" t="n">
         <v>123.9255905034782</v>
       </c>
       <c r="S29" t="n">
-        <v>44.95579398002921</v>
+        <v>44.9557939800292</v>
       </c>
       <c r="T29" t="n">
-        <v>8.636049946136161</v>
+        <v>8.63604994613616</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1578261554976339</v>
+        <v>0.1578261554976338</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,19 +33253,19 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.055555472765132</v>
+        <v>1.055555472765131</v>
       </c>
       <c r="H30" t="n">
-        <v>10.19444364486325</v>
+        <v>10.19444364486324</v>
       </c>
       <c r="I30" t="n">
         <v>36.34258974213282</v>
       </c>
       <c r="J30" t="n">
-        <v>99.72684402997237</v>
+        <v>99.72684402997236</v>
       </c>
       <c r="K30" t="n">
-        <v>170.4490607052362</v>
+        <v>170.4490607052361</v>
       </c>
       <c r="L30" t="n">
         <v>229.1897968387624</v>
@@ -33277,7 +33277,7 @@
         <v>274.5323858749979</v>
       </c>
       <c r="O30" t="n">
-        <v>251.1434988205706</v>
+        <v>251.1434988205705</v>
       </c>
       <c r="P30" t="n">
         <v>201.564799005475</v>
@@ -33286,7 +33286,7 @@
         <v>134.7407301726157</v>
       </c>
       <c r="R30" t="n">
-        <v>65.53703189676845</v>
+        <v>65.53703189676844</v>
       </c>
       <c r="S30" t="n">
         <v>19.60647994368565</v>
@@ -33295,7 +33295,7 @@
         <v>4.25462929592612</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06944443899770604</v>
+        <v>0.06944443899770603</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,16 +33332,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8849422499598383</v>
+        <v>0.8849422499598382</v>
       </c>
       <c r="H31" t="n">
-        <v>7.867941095097478</v>
+        <v>7.867941095097476</v>
       </c>
       <c r="I31" t="n">
         <v>26.61262693515587</v>
       </c>
       <c r="J31" t="n">
-        <v>62.56541707216056</v>
+        <v>62.56541707216055</v>
       </c>
       <c r="K31" t="n">
         <v>102.814199586243</v>
@@ -33356,25 +33356,25 @@
         <v>135.4202990324906</v>
       </c>
       <c r="O31" t="n">
-        <v>125.0825645670507</v>
+        <v>125.0825645670506</v>
       </c>
       <c r="P31" t="n">
-        <v>107.0297426678699</v>
+        <v>107.0297426678698</v>
       </c>
       <c r="Q31" t="n">
-        <v>74.10184603981884</v>
+        <v>74.10184603981881</v>
       </c>
       <c r="R31" t="n">
-        <v>39.79022153001236</v>
+        <v>39.79022153001235</v>
       </c>
       <c r="S31" t="n">
         <v>15.42212993793645</v>
       </c>
       <c r="T31" t="n">
-        <v>3.781116886192036</v>
+        <v>3.781116886192035</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04826957727053669</v>
+        <v>0.04826957727053668</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33414,46 +33414,46 @@
         <v>1.972826943720424</v>
       </c>
       <c r="H32" t="n">
-        <v>20.2042139373768</v>
+        <v>20.20421393737679</v>
       </c>
       <c r="I32" t="n">
-        <v>76.05741074778172</v>
+        <v>76.0574107477817</v>
       </c>
       <c r="J32" t="n">
-        <v>167.4412208145915</v>
+        <v>167.4412208145914</v>
       </c>
       <c r="K32" t="n">
-        <v>250.9509853422771</v>
+        <v>250.950985342277</v>
       </c>
       <c r="L32" t="n">
-        <v>311.3268879211611</v>
+        <v>311.326887921161</v>
       </c>
       <c r="M32" t="n">
-        <v>346.4111490815492</v>
+        <v>346.4111490815491</v>
       </c>
       <c r="N32" t="n">
-        <v>352.0164436353949</v>
+        <v>352.0164436353948</v>
       </c>
       <c r="O32" t="n">
         <v>332.3991457137748</v>
       </c>
       <c r="P32" t="n">
-        <v>283.6949805406769</v>
+        <v>283.6949805406768</v>
       </c>
       <c r="Q32" t="n">
-        <v>213.0431156186891</v>
+        <v>213.043115618689</v>
       </c>
       <c r="R32" t="n">
         <v>123.9255905034782</v>
       </c>
       <c r="S32" t="n">
-        <v>44.95579398002921</v>
+        <v>44.9557939800292</v>
       </c>
       <c r="T32" t="n">
-        <v>8.636049946136161</v>
+        <v>8.63604994613616</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1578261554976339</v>
+        <v>0.1578261554976338</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,19 +33490,19 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.055555472765132</v>
+        <v>1.055555472765131</v>
       </c>
       <c r="H33" t="n">
-        <v>10.19444364486325</v>
+        <v>10.19444364486324</v>
       </c>
       <c r="I33" t="n">
         <v>36.34258974213282</v>
       </c>
       <c r="J33" t="n">
-        <v>99.72684402997237</v>
+        <v>99.72684402997236</v>
       </c>
       <c r="K33" t="n">
-        <v>170.4490607052362</v>
+        <v>170.4490607052361</v>
       </c>
       <c r="L33" t="n">
         <v>229.1897968387624</v>
@@ -33514,7 +33514,7 @@
         <v>274.5323858749979</v>
       </c>
       <c r="O33" t="n">
-        <v>251.1434988205706</v>
+        <v>251.1434988205705</v>
       </c>
       <c r="P33" t="n">
         <v>201.564799005475</v>
@@ -33523,7 +33523,7 @@
         <v>134.7407301726157</v>
       </c>
       <c r="R33" t="n">
-        <v>65.53703189676845</v>
+        <v>65.53703189676844</v>
       </c>
       <c r="S33" t="n">
         <v>19.60647994368565</v>
@@ -33532,7 +33532,7 @@
         <v>4.25462929592612</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06944443899770604</v>
+        <v>0.06944443899770603</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,16 +33569,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8849422499598383</v>
+        <v>0.8849422499598382</v>
       </c>
       <c r="H34" t="n">
-        <v>7.867941095097478</v>
+        <v>7.867941095097476</v>
       </c>
       <c r="I34" t="n">
         <v>26.61262693515587</v>
       </c>
       <c r="J34" t="n">
-        <v>62.56541707216056</v>
+        <v>62.56541707216055</v>
       </c>
       <c r="K34" t="n">
         <v>102.814199586243</v>
@@ -33593,25 +33593,25 @@
         <v>135.4202990324906</v>
       </c>
       <c r="O34" t="n">
-        <v>125.0825645670507</v>
+        <v>125.0825645670506</v>
       </c>
       <c r="P34" t="n">
-        <v>107.0297426678699</v>
+        <v>107.0297426678698</v>
       </c>
       <c r="Q34" t="n">
-        <v>74.10184603981884</v>
+        <v>74.10184603981881</v>
       </c>
       <c r="R34" t="n">
-        <v>39.79022153001236</v>
+        <v>39.79022153001235</v>
       </c>
       <c r="S34" t="n">
         <v>15.42212993793645</v>
       </c>
       <c r="T34" t="n">
-        <v>3.781116886192036</v>
+        <v>3.781116886192035</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04826957727053669</v>
+        <v>0.04826957727053668</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33651,46 +33651,46 @@
         <v>1.972826943720424</v>
       </c>
       <c r="H35" t="n">
-        <v>20.2042139373768</v>
+        <v>20.20421393737679</v>
       </c>
       <c r="I35" t="n">
-        <v>76.05741074778172</v>
+        <v>76.0574107477817</v>
       </c>
       <c r="J35" t="n">
-        <v>167.4412208145915</v>
+        <v>167.4412208145914</v>
       </c>
       <c r="K35" t="n">
-        <v>250.9509853422771</v>
+        <v>250.950985342277</v>
       </c>
       <c r="L35" t="n">
-        <v>311.3268879211611</v>
+        <v>311.326887921161</v>
       </c>
       <c r="M35" t="n">
-        <v>346.4111490815492</v>
+        <v>346.4111490815491</v>
       </c>
       <c r="N35" t="n">
-        <v>352.0164436353949</v>
+        <v>352.0164436353948</v>
       </c>
       <c r="O35" t="n">
         <v>332.3991457137748</v>
       </c>
       <c r="P35" t="n">
-        <v>283.6949805406769</v>
+        <v>283.6949805406768</v>
       </c>
       <c r="Q35" t="n">
-        <v>213.0431156186891</v>
+        <v>213.043115618689</v>
       </c>
       <c r="R35" t="n">
         <v>123.9255905034782</v>
       </c>
       <c r="S35" t="n">
-        <v>44.95579398002921</v>
+        <v>44.9557939800292</v>
       </c>
       <c r="T35" t="n">
-        <v>8.636049946136161</v>
+        <v>8.63604994613616</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1578261554976339</v>
+        <v>0.1578261554976338</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,19 +33727,19 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.055555472765132</v>
+        <v>1.055555472765131</v>
       </c>
       <c r="H36" t="n">
-        <v>10.19444364486325</v>
+        <v>10.19444364486324</v>
       </c>
       <c r="I36" t="n">
         <v>36.34258974213282</v>
       </c>
       <c r="J36" t="n">
-        <v>99.72684402997237</v>
+        <v>99.72684402997236</v>
       </c>
       <c r="K36" t="n">
-        <v>170.4490607052362</v>
+        <v>170.4490607052361</v>
       </c>
       <c r="L36" t="n">
         <v>229.1897968387624</v>
@@ -33751,7 +33751,7 @@
         <v>274.5323858749979</v>
       </c>
       <c r="O36" t="n">
-        <v>251.1434988205706</v>
+        <v>251.1434988205705</v>
       </c>
       <c r="P36" t="n">
         <v>201.564799005475</v>
@@ -33760,7 +33760,7 @@
         <v>134.7407301726157</v>
       </c>
       <c r="R36" t="n">
-        <v>65.53703189676845</v>
+        <v>65.53703189676844</v>
       </c>
       <c r="S36" t="n">
         <v>19.60647994368565</v>
@@ -33769,7 +33769,7 @@
         <v>4.25462929592612</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06944443899770604</v>
+        <v>0.06944443899770603</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,16 +33806,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8849422499598383</v>
+        <v>0.8849422499598382</v>
       </c>
       <c r="H37" t="n">
-        <v>7.867941095097478</v>
+        <v>7.867941095097476</v>
       </c>
       <c r="I37" t="n">
         <v>26.61262693515587</v>
       </c>
       <c r="J37" t="n">
-        <v>62.56541707216056</v>
+        <v>62.56541707216055</v>
       </c>
       <c r="K37" t="n">
         <v>102.814199586243</v>
@@ -33830,25 +33830,25 @@
         <v>135.4202990324906</v>
       </c>
       <c r="O37" t="n">
-        <v>125.0825645670507</v>
+        <v>125.0825645670506</v>
       </c>
       <c r="P37" t="n">
-        <v>107.0297426678699</v>
+        <v>107.0297426678698</v>
       </c>
       <c r="Q37" t="n">
-        <v>74.10184603981884</v>
+        <v>74.10184603981881</v>
       </c>
       <c r="R37" t="n">
-        <v>39.79022153001236</v>
+        <v>39.79022153001235</v>
       </c>
       <c r="S37" t="n">
         <v>15.42212993793645</v>
       </c>
       <c r="T37" t="n">
-        <v>3.781116886192036</v>
+        <v>3.781116886192035</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04826957727053669</v>
+        <v>0.04826957727053668</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33888,46 +33888,46 @@
         <v>1.972826943720424</v>
       </c>
       <c r="H38" t="n">
-        <v>20.2042139373768</v>
+        <v>20.20421393737679</v>
       </c>
       <c r="I38" t="n">
-        <v>76.05741074778172</v>
+        <v>76.0574107477817</v>
       </c>
       <c r="J38" t="n">
-        <v>167.4412208145915</v>
+        <v>167.4412208145914</v>
       </c>
       <c r="K38" t="n">
-        <v>250.9509853422771</v>
+        <v>250.950985342277</v>
       </c>
       <c r="L38" t="n">
-        <v>311.3268879211611</v>
+        <v>311.326887921161</v>
       </c>
       <c r="M38" t="n">
-        <v>346.4111490815492</v>
+        <v>346.4111490815491</v>
       </c>
       <c r="N38" t="n">
-        <v>352.0164436353949</v>
+        <v>352.0164436353948</v>
       </c>
       <c r="O38" t="n">
         <v>332.3991457137748</v>
       </c>
       <c r="P38" t="n">
-        <v>283.6949805406769</v>
+        <v>283.6949805406768</v>
       </c>
       <c r="Q38" t="n">
-        <v>213.0431156186891</v>
+        <v>213.043115618689</v>
       </c>
       <c r="R38" t="n">
         <v>123.9255905034782</v>
       </c>
       <c r="S38" t="n">
-        <v>44.95579398002921</v>
+        <v>44.9557939800292</v>
       </c>
       <c r="T38" t="n">
-        <v>8.636049946136161</v>
+        <v>8.63604994613616</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1578261554976339</v>
+        <v>0.1578261554976338</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,19 +33964,19 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.055555472765132</v>
+        <v>1.055555472765131</v>
       </c>
       <c r="H39" t="n">
-        <v>10.19444364486325</v>
+        <v>10.19444364486324</v>
       </c>
       <c r="I39" t="n">
         <v>36.34258974213282</v>
       </c>
       <c r="J39" t="n">
-        <v>99.72684402997237</v>
+        <v>99.72684402997236</v>
       </c>
       <c r="K39" t="n">
-        <v>170.4490607052362</v>
+        <v>170.4490607052361</v>
       </c>
       <c r="L39" t="n">
         <v>229.1897968387624</v>
@@ -33988,7 +33988,7 @@
         <v>274.5323858749979</v>
       </c>
       <c r="O39" t="n">
-        <v>251.1434988205706</v>
+        <v>251.1434988205705</v>
       </c>
       <c r="P39" t="n">
         <v>201.564799005475</v>
@@ -33997,7 +33997,7 @@
         <v>134.7407301726157</v>
       </c>
       <c r="R39" t="n">
-        <v>65.53703189676845</v>
+        <v>65.53703189676844</v>
       </c>
       <c r="S39" t="n">
         <v>19.60647994368565</v>
@@ -34006,7 +34006,7 @@
         <v>4.25462929592612</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06944443899770604</v>
+        <v>0.06944443899770603</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,16 +34043,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8849422499598383</v>
+        <v>0.8849422499598382</v>
       </c>
       <c r="H40" t="n">
-        <v>7.867941095097478</v>
+        <v>7.867941095097476</v>
       </c>
       <c r="I40" t="n">
         <v>26.61262693515587</v>
       </c>
       <c r="J40" t="n">
-        <v>62.56541707216056</v>
+        <v>62.56541707216055</v>
       </c>
       <c r="K40" t="n">
         <v>102.814199586243</v>
@@ -34067,25 +34067,25 @@
         <v>135.4202990324906</v>
       </c>
       <c r="O40" t="n">
-        <v>125.0825645670507</v>
+        <v>125.0825645670506</v>
       </c>
       <c r="P40" t="n">
-        <v>107.0297426678699</v>
+        <v>107.0297426678698</v>
       </c>
       <c r="Q40" t="n">
-        <v>74.10184603981884</v>
+        <v>74.10184603981881</v>
       </c>
       <c r="R40" t="n">
-        <v>39.79022153001236</v>
+        <v>39.79022153001235</v>
       </c>
       <c r="S40" t="n">
         <v>15.42212993793645</v>
       </c>
       <c r="T40" t="n">
-        <v>3.781116886192036</v>
+        <v>3.781116886192035</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04826957727053669</v>
+        <v>0.04826957727053668</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.972826943720424</v>
+        <v>1.972826943720423</v>
       </c>
       <c r="H41" t="n">
-        <v>20.2042139373768</v>
+        <v>20.20421393737679</v>
       </c>
       <c r="I41" t="n">
-        <v>76.05741074778173</v>
+        <v>76.0574107477817</v>
       </c>
       <c r="J41" t="n">
-        <v>167.4412208145915</v>
+        <v>167.4412208145914</v>
       </c>
       <c r="K41" t="n">
-        <v>250.9509853422771</v>
+        <v>250.950985342277</v>
       </c>
       <c r="L41" t="n">
-        <v>311.3268879211611</v>
+        <v>311.3268879211615</v>
       </c>
       <c r="M41" t="n">
-        <v>346.4111490815492</v>
+        <v>346.411149081549</v>
       </c>
       <c r="N41" t="n">
-        <v>352.0164436353949</v>
+        <v>352.0164436353948</v>
       </c>
       <c r="O41" t="n">
-        <v>332.3991457137749</v>
+        <v>332.3991457137747</v>
       </c>
       <c r="P41" t="n">
-        <v>283.6949805406769</v>
+        <v>283.6949805406767</v>
       </c>
       <c r="Q41" t="n">
-        <v>213.0431156186891</v>
+        <v>213.043115618689</v>
       </c>
       <c r="R41" t="n">
-        <v>123.9255905034782</v>
+        <v>123.9255905034781</v>
       </c>
       <c r="S41" t="n">
-        <v>44.95579398002921</v>
+        <v>44.95579398002919</v>
       </c>
       <c r="T41" t="n">
-        <v>8.636049946136161</v>
+        <v>8.636049946136158</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1578261554976339</v>
+        <v>0.1578261554976338</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.055555472765132</v>
+        <v>1.055555472765131</v>
       </c>
       <c r="H42" t="n">
-        <v>10.19444364486325</v>
+        <v>10.19444364486324</v>
       </c>
       <c r="I42" t="n">
-        <v>36.34258974213282</v>
+        <v>36.34258974213281</v>
       </c>
       <c r="J42" t="n">
-        <v>99.72684402997238</v>
+        <v>99.72684402997234</v>
       </c>
       <c r="K42" t="n">
-        <v>170.4490607052362</v>
+        <v>170.4490607052361</v>
       </c>
       <c r="L42" t="n">
-        <v>229.1897968387625</v>
+        <v>229.1897968387624</v>
       </c>
       <c r="M42" t="n">
-        <v>267.4536827264984</v>
+        <v>267.4536827264983</v>
       </c>
       <c r="N42" t="n">
-        <v>274.532385874998</v>
+        <v>274.5323858749979</v>
       </c>
       <c r="O42" t="n">
-        <v>251.1434988205706</v>
+        <v>251.1434988205705</v>
       </c>
       <c r="P42" t="n">
-        <v>201.564799005475</v>
+        <v>201.5647990054749</v>
       </c>
       <c r="Q42" t="n">
-        <v>134.7407301726158</v>
+        <v>134.7407301726157</v>
       </c>
       <c r="R42" t="n">
-        <v>65.53703189676845</v>
+        <v>65.53703189676843</v>
       </c>
       <c r="S42" t="n">
-        <v>19.60647994368566</v>
+        <v>19.60647994368565</v>
       </c>
       <c r="T42" t="n">
-        <v>4.254629295926121</v>
+        <v>4.254629295926119</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06944443899770605</v>
+        <v>0.06944443899770603</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,16 +34280,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8849422499598384</v>
+        <v>0.8849422499598381</v>
       </c>
       <c r="H43" t="n">
-        <v>7.867941095097478</v>
+        <v>7.867941095097475</v>
       </c>
       <c r="I43" t="n">
-        <v>26.61262693515588</v>
+        <v>26.61262693515586</v>
       </c>
       <c r="J43" t="n">
-        <v>62.56541707216057</v>
+        <v>62.56541707216054</v>
       </c>
       <c r="K43" t="n">
         <v>102.814199586243</v>
@@ -34298,31 +34298,31 @@
         <v>131.5667777803927</v>
       </c>
       <c r="M43" t="n">
-        <v>138.7187201459772</v>
+        <v>138.7187201459771</v>
       </c>
       <c r="N43" t="n">
         <v>135.4202990324906</v>
       </c>
       <c r="O43" t="n">
-        <v>125.0825645670507</v>
+        <v>125.0825645670506</v>
       </c>
       <c r="P43" t="n">
-        <v>107.0297426678699</v>
+        <v>107.0297426678698</v>
       </c>
       <c r="Q43" t="n">
-        <v>74.10184603981884</v>
+        <v>74.10184603981881</v>
       </c>
       <c r="R43" t="n">
-        <v>39.79022153001236</v>
+        <v>39.79022153001235</v>
       </c>
       <c r="S43" t="n">
-        <v>15.42212993793645</v>
+        <v>15.42212993793644</v>
       </c>
       <c r="T43" t="n">
-        <v>3.781116886192036</v>
+        <v>3.781116886192034</v>
       </c>
       <c r="U43" t="n">
-        <v>0.0482695772705367</v>
+        <v>0.04826957727053668</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.972826943720424</v>
+        <v>1.972826943720423</v>
       </c>
       <c r="H44" t="n">
-        <v>20.2042139373768</v>
+        <v>20.20421393737679</v>
       </c>
       <c r="I44" t="n">
-        <v>76.05741074778173</v>
+        <v>76.0574107477817</v>
       </c>
       <c r="J44" t="n">
-        <v>167.4412208145915</v>
+        <v>167.4412208145914</v>
       </c>
       <c r="K44" t="n">
-        <v>250.9509853422771</v>
+        <v>250.950985342277</v>
       </c>
       <c r="L44" t="n">
-        <v>311.3268879211616</v>
+        <v>311.326887921161</v>
       </c>
       <c r="M44" t="n">
-        <v>346.4111490815492</v>
+        <v>346.411149081549</v>
       </c>
       <c r="N44" t="n">
-        <v>352.0164436353949</v>
+        <v>352.0164436353948</v>
       </c>
       <c r="O44" t="n">
-        <v>332.3991457137749</v>
+        <v>332.3991457137747</v>
       </c>
       <c r="P44" t="n">
-        <v>283.6949805406769</v>
+        <v>283.6949805406767</v>
       </c>
       <c r="Q44" t="n">
-        <v>213.0431156186891</v>
+        <v>213.043115618689</v>
       </c>
       <c r="R44" t="n">
-        <v>123.9255905034782</v>
+        <v>123.9255905034781</v>
       </c>
       <c r="S44" t="n">
-        <v>44.95579398002921</v>
+        <v>44.95579398002919</v>
       </c>
       <c r="T44" t="n">
-        <v>8.636049946136161</v>
+        <v>8.636049946136158</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1578261554976339</v>
+        <v>0.1578261554976338</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.055555472765132</v>
+        <v>1.055555472765131</v>
       </c>
       <c r="H45" t="n">
-        <v>10.19444364486325</v>
+        <v>10.19444364486324</v>
       </c>
       <c r="I45" t="n">
-        <v>36.34258974213282</v>
+        <v>36.34258974213281</v>
       </c>
       <c r="J45" t="n">
-        <v>99.72684402997238</v>
+        <v>99.72684402997234</v>
       </c>
       <c r="K45" t="n">
-        <v>170.4490607052362</v>
+        <v>170.4490607052361</v>
       </c>
       <c r="L45" t="n">
-        <v>229.1897968387625</v>
+        <v>229.1897968387624</v>
       </c>
       <c r="M45" t="n">
-        <v>267.4536827264984</v>
+        <v>267.4536827264983</v>
       </c>
       <c r="N45" t="n">
-        <v>274.532385874998</v>
+        <v>274.5323858749979</v>
       </c>
       <c r="O45" t="n">
-        <v>251.1434988205706</v>
+        <v>251.1434988205705</v>
       </c>
       <c r="P45" t="n">
-        <v>201.564799005475</v>
+        <v>201.5647990054749</v>
       </c>
       <c r="Q45" t="n">
-        <v>134.7407301726158</v>
+        <v>134.7407301726157</v>
       </c>
       <c r="R45" t="n">
-        <v>65.53703189676845</v>
+        <v>65.53703189676843</v>
       </c>
       <c r="S45" t="n">
-        <v>19.60647994368566</v>
+        <v>19.60647994368565</v>
       </c>
       <c r="T45" t="n">
-        <v>4.254629295926121</v>
+        <v>4.254629295926119</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06944443899770605</v>
+        <v>0.06944443899770603</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,16 +34517,16 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8849422499598384</v>
+        <v>0.8849422499598381</v>
       </c>
       <c r="H46" t="n">
-        <v>7.867941095097478</v>
+        <v>7.867941095097475</v>
       </c>
       <c r="I46" t="n">
-        <v>26.61262693515588</v>
+        <v>26.61262693515586</v>
       </c>
       <c r="J46" t="n">
-        <v>62.56541707216057</v>
+        <v>62.56541707216054</v>
       </c>
       <c r="K46" t="n">
         <v>102.814199586243</v>
@@ -34535,31 +34535,31 @@
         <v>131.5667777803927</v>
       </c>
       <c r="M46" t="n">
-        <v>138.7187201459772</v>
+        <v>138.7187201459771</v>
       </c>
       <c r="N46" t="n">
         <v>135.4202990324906</v>
       </c>
       <c r="O46" t="n">
-        <v>125.0825645670507</v>
+        <v>125.0825645670506</v>
       </c>
       <c r="P46" t="n">
-        <v>107.0297426678699</v>
+        <v>107.0297426678698</v>
       </c>
       <c r="Q46" t="n">
-        <v>74.10184603981884</v>
+        <v>74.10184603981881</v>
       </c>
       <c r="R46" t="n">
-        <v>39.79022153001236</v>
+        <v>39.79022153001235</v>
       </c>
       <c r="S46" t="n">
-        <v>15.42212993793645</v>
+        <v>15.42212993793644</v>
       </c>
       <c r="T46" t="n">
-        <v>3.781116886192036</v>
+        <v>3.781116886192034</v>
       </c>
       <c r="U46" t="n">
-        <v>0.0482695772705367</v>
+        <v>0.04826957727053668</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35406,16 +35406,16 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.50950820381819</v>
+        <v>41.5095082038182</v>
       </c>
       <c r="J11" t="n">
         <v>138.0212613290049</v>
       </c>
       <c r="K11" t="n">
-        <v>215.1863845474676</v>
+        <v>215.1863845474677</v>
       </c>
       <c r="L11" t="n">
-        <v>273.014845488538</v>
+        <v>273.0148454885381</v>
       </c>
       <c r="M11" t="n">
         <v>308.9798861821172</v>
@@ -35424,16 +35424,16 @@
         <v>314.7368208009487</v>
       </c>
       <c r="O11" t="n">
-        <v>295.0081863577506</v>
+        <v>295.0081863577507</v>
       </c>
       <c r="P11" t="n">
-        <v>246.1196187304454</v>
+        <v>246.1196187304455</v>
       </c>
       <c r="Q11" t="n">
-        <v>176.9184410140909</v>
+        <v>176.918441014091</v>
       </c>
       <c r="R11" t="n">
-        <v>88.89294060868167</v>
+        <v>88.8929406086817</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>20.1702029921328</v>
+        <v>20.17020299213281</v>
       </c>
       <c r="J12" t="n">
-        <v>79.11572969663899</v>
+        <v>79.11572969663902</v>
       </c>
       <c r="K12" t="n">
-        <v>148.0498268719028</v>
+        <v>425.9320681117904</v>
       </c>
       <c r="L12" t="n">
         <v>206.6747101245328</v>
       </c>
       <c r="M12" t="n">
-        <v>244.3569022141703</v>
+        <v>244.3569022141704</v>
       </c>
       <c r="N12" t="n">
         <v>253.1893576614562</v>
       </c>
       <c r="O12" t="n">
-        <v>505.8538503382362</v>
+        <v>227.9716090983483</v>
       </c>
       <c r="P12" t="n">
-        <v>179.7939578006462</v>
+        <v>179.7939578006463</v>
       </c>
       <c r="Q12" t="n">
         <v>111.9936918836372</v>
       </c>
       <c r="R12" t="n">
-        <v>41.86411250262428</v>
+        <v>41.86411250262429</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,16 +35567,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>120.6374657834313</v>
+        <v>41.92866108825868</v>
       </c>
       <c r="K13" t="n">
-        <v>81.84954513353097</v>
+        <v>226.8930961539887</v>
       </c>
       <c r="L13" t="n">
-        <v>489.8388194919288</v>
+        <v>109.6480178846915</v>
       </c>
       <c r="M13" t="n">
-        <v>271.105105731333</v>
+        <v>116.1432802544913</v>
       </c>
       <c r="N13" t="n">
         <v>516.7248554729308</v>
@@ -35585,10 +35585,10 @@
         <v>484.1008763647911</v>
       </c>
       <c r="P13" t="n">
-        <v>84.64894200988333</v>
+        <v>400.5643001647395</v>
       </c>
       <c r="Q13" t="n">
-        <v>49.48228327503385</v>
+        <v>202.3848058789723</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>20.17020299213281</v>
+        <v>43.86445131982154</v>
       </c>
       <c r="J15" t="n">
         <v>79.11572969663902</v>
@@ -35731,7 +35731,7 @@
         <v>148.0498268719028</v>
       </c>
       <c r="L15" t="n">
-        <v>484.5569513644205</v>
+        <v>206.6747101245328</v>
       </c>
       <c r="M15" t="n">
         <v>244.3569022141704</v>
@@ -35746,7 +35746,7 @@
         <v>179.7939578006463</v>
       </c>
       <c r="Q15" t="n">
-        <v>111.9936918836372</v>
+        <v>366.1816847958362</v>
       </c>
       <c r="R15" t="n">
         <v>41.86411250262429</v>
@@ -35813,16 +35813,16 @@
         <v>489.8388194919288</v>
       </c>
       <c r="M16" t="n">
-        <v>529.950003655672</v>
+        <v>481.5509964761844</v>
       </c>
       <c r="N16" t="n">
-        <v>152.4104901385864</v>
+        <v>516.7248554729308</v>
       </c>
       <c r="O16" t="n">
         <v>102.5833770686262</v>
       </c>
       <c r="P16" t="n">
-        <v>400.5643001647395</v>
+        <v>84.64894200988336</v>
       </c>
       <c r="Q16" t="n">
         <v>49.48228327503386</v>
@@ -35886,10 +35886,10 @@
         <v>138.0212613290049</v>
       </c>
       <c r="K17" t="n">
-        <v>215.1863845474677</v>
+        <v>215.1863845474676</v>
       </c>
       <c r="L17" t="n">
-        <v>273.0148454885381</v>
+        <v>273.014845488538</v>
       </c>
       <c r="M17" t="n">
         <v>308.9798861821172</v>
@@ -35898,16 +35898,16 @@
         <v>314.7368208009487</v>
       </c>
       <c r="O17" t="n">
-        <v>295.0081863577507</v>
+        <v>295.0081863577506</v>
       </c>
       <c r="P17" t="n">
-        <v>246.1196187304455</v>
+        <v>246.1196187304454</v>
       </c>
       <c r="Q17" t="n">
         <v>176.918441014091</v>
       </c>
       <c r="R17" t="n">
-        <v>88.8929406086817</v>
+        <v>88.89294060868167</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,22 +35962,22 @@
         <v>20.17020299213281</v>
       </c>
       <c r="J18" t="n">
-        <v>79.11572969663902</v>
+        <v>79.11572969663901</v>
       </c>
       <c r="K18" t="n">
-        <v>148.0498268719028</v>
+        <v>425.9320681117906</v>
       </c>
       <c r="L18" t="n">
         <v>206.6747101245328</v>
       </c>
       <c r="M18" t="n">
-        <v>244.3569022141704</v>
+        <v>244.3569022141703</v>
       </c>
       <c r="N18" t="n">
-        <v>529.9500036556723</v>
+        <v>253.1893576614562</v>
       </c>
       <c r="O18" t="n">
-        <v>229.0932043440199</v>
+        <v>227.9716090983482</v>
       </c>
       <c r="P18" t="n">
         <v>179.7939578006463</v>
@@ -35986,7 +35986,7 @@
         <v>111.9936918836372</v>
       </c>
       <c r="R18" t="n">
-        <v>41.86411250262429</v>
+        <v>41.86411250262428</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,25 +36041,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>41.92866108825868</v>
+        <v>120.6374657834313</v>
       </c>
       <c r="K19" t="n">
-        <v>81.849545133531</v>
+        <v>331.6299583800179</v>
       </c>
       <c r="L19" t="n">
-        <v>254.6915689051492</v>
+        <v>489.8388194919288</v>
       </c>
       <c r="M19" t="n">
-        <v>116.1432802544913</v>
+        <v>529.9500036556723</v>
       </c>
       <c r="N19" t="n">
-        <v>516.7248554729308</v>
+        <v>114.6713980568902</v>
       </c>
       <c r="O19" t="n">
-        <v>484.1008763647911</v>
+        <v>224.6265000060677</v>
       </c>
       <c r="P19" t="n">
-        <v>400.5643001647395</v>
+        <v>84.64894200988334</v>
       </c>
       <c r="Q19" t="n">
         <v>202.3848058789723</v>
@@ -36202,7 +36202,7 @@
         <v>79.11572969663901</v>
       </c>
       <c r="K21" t="n">
-        <v>319.4113607533</v>
+        <v>148.0498268719028</v>
       </c>
       <c r="L21" t="n">
         <v>206.6747101245328</v>
@@ -36217,13 +36217,13 @@
         <v>227.9716090983482</v>
       </c>
       <c r="P21" t="n">
-        <v>179.7939578006463</v>
+        <v>457.676199040534</v>
       </c>
       <c r="Q21" t="n">
         <v>111.9936918836372</v>
       </c>
       <c r="R21" t="n">
-        <v>148.384819861115</v>
+        <v>41.86411250262428</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>41.92866108825868</v>
+        <v>120.6374657834313</v>
       </c>
       <c r="K22" t="n">
-        <v>81.84954513353098</v>
+        <v>331.6299583800179</v>
       </c>
       <c r="L22" t="n">
         <v>489.8388194919288</v>
@@ -36290,13 +36290,13 @@
         <v>116.1432802544913</v>
       </c>
       <c r="N22" t="n">
-        <v>434.48012749009</v>
+        <v>516.7248554729308</v>
       </c>
       <c r="O22" t="n">
-        <v>484.1008763647911</v>
+        <v>389.282288595147</v>
       </c>
       <c r="P22" t="n">
-        <v>400.5643001647395</v>
+        <v>84.64894200988334</v>
       </c>
       <c r="Q22" t="n">
         <v>49.48228327503386</v>
@@ -36354,7 +36354,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>41.50950820381821</v>
+        <v>41.5095082038182</v>
       </c>
       <c r="J23" t="n">
         <v>138.0212613290049</v>
@@ -36366,10 +36366,10 @@
         <v>273.0148454885381</v>
       </c>
       <c r="M23" t="n">
-        <v>308.9798861821173</v>
+        <v>308.9798861821172</v>
       </c>
       <c r="N23" t="n">
-        <v>314.7368208009488</v>
+        <v>314.7368208009487</v>
       </c>
       <c r="O23" t="n">
         <v>295.0081863577507</v>
@@ -36448,7 +36448,7 @@
         <v>244.3569022141704</v>
       </c>
       <c r="N24" t="n">
-        <v>253.1893576614563</v>
+        <v>253.1893576614562</v>
       </c>
       <c r="O24" t="n">
         <v>227.9716090983483</v>
@@ -36515,16 +36515,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>41.92866108825869</v>
+        <v>41.92866108825868</v>
       </c>
       <c r="K25" t="n">
-        <v>81.84954513353101</v>
+        <v>281.9042535116022</v>
       </c>
       <c r="L25" t="n">
         <v>109.6480178846915</v>
       </c>
       <c r="M25" t="n">
-        <v>529.9500036556723</v>
+        <v>529.9500036556722</v>
       </c>
       <c r="N25" t="n">
         <v>516.7248554729308</v>
@@ -36533,10 +36533,10 @@
         <v>484.1008763647911</v>
       </c>
       <c r="P25" t="n">
-        <v>131.8011277840164</v>
+        <v>84.64894200988336</v>
       </c>
       <c r="Q25" t="n">
-        <v>202.3848058789723</v>
+        <v>49.48228327503386</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>41.50950820381821</v>
+        <v>41.5095082038182</v>
       </c>
       <c r="J26" t="n">
-        <v>138.021261329005</v>
+        <v>138.0212613290049</v>
       </c>
       <c r="K26" t="n">
-        <v>215.1863845474678</v>
+        <v>215.1863845474677</v>
       </c>
       <c r="L26" t="n">
         <v>273.0148454885381</v>
       </c>
       <c r="M26" t="n">
-        <v>308.9798861821174</v>
+        <v>308.9798861821172</v>
       </c>
       <c r="N26" t="n">
-        <v>314.7368208009489</v>
+        <v>314.7368208009487</v>
       </c>
       <c r="O26" t="n">
         <v>295.0081863577507</v>
       </c>
       <c r="P26" t="n">
-        <v>246.1196187304456</v>
+        <v>246.1196187304455</v>
       </c>
       <c r="Q26" t="n">
-        <v>176.9184410140911</v>
+        <v>176.918441014091</v>
       </c>
       <c r="R26" t="n">
-        <v>88.89294060868173</v>
+        <v>88.8929406086817</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>20.17020299213282</v>
+        <v>43.86445131982154</v>
       </c>
       <c r="J27" t="n">
-        <v>79.11572969663904</v>
+        <v>226.7830152503472</v>
       </c>
       <c r="K27" t="n">
         <v>148.0498268719028</v>
       </c>
       <c r="L27" t="n">
-        <v>206.6747101245329</v>
+        <v>206.6747101245328</v>
       </c>
       <c r="M27" t="n">
         <v>244.3569022141704</v>
       </c>
       <c r="N27" t="n">
-        <v>253.1893576614563</v>
+        <v>253.1893576614562</v>
       </c>
       <c r="O27" t="n">
         <v>227.9716090983483</v>
       </c>
       <c r="P27" t="n">
-        <v>457.6761990405336</v>
+        <v>179.7939578006463</v>
       </c>
       <c r="Q27" t="n">
         <v>111.9936918836372</v>
       </c>
       <c r="R27" t="n">
-        <v>41.86411250262431</v>
+        <v>148.384819861115</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>41.92866108825869</v>
+        <v>41.92866108825868</v>
       </c>
       <c r="K28" t="n">
-        <v>81.84954513353101</v>
+        <v>81.849545133531</v>
       </c>
       <c r="L28" t="n">
-        <v>375.3048674040724</v>
+        <v>109.6480178846915</v>
       </c>
       <c r="M28" t="n">
-        <v>529.9500036556725</v>
+        <v>529.9500036556723</v>
       </c>
       <c r="N28" t="n">
         <v>516.7248554729308</v>
       </c>
       <c r="O28" t="n">
-        <v>102.5833770686262</v>
+        <v>484.1008763647911</v>
       </c>
       <c r="P28" t="n">
-        <v>400.5643001647396</v>
+        <v>284.703650387955</v>
       </c>
       <c r="Q28" t="n">
-        <v>49.48228327503389</v>
+        <v>49.48228327503386</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,22 +36828,22 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>41.50950820381821</v>
+        <v>41.5095082038182</v>
       </c>
       <c r="J29" t="n">
-        <v>138.021261329005</v>
+        <v>138.0212613290049</v>
       </c>
       <c r="K29" t="n">
-        <v>215.1863845474678</v>
+        <v>215.1863845474677</v>
       </c>
       <c r="L29" t="n">
         <v>273.0148454885381</v>
       </c>
       <c r="M29" t="n">
-        <v>308.9798861821174</v>
+        <v>308.9798861821172</v>
       </c>
       <c r="N29" t="n">
-        <v>314.7368208009489</v>
+        <v>314.7368208009487</v>
       </c>
       <c r="O29" t="n">
         <v>295.0081863577507</v>
@@ -36852,10 +36852,10 @@
         <v>246.1196187304456</v>
       </c>
       <c r="Q29" t="n">
-        <v>176.9184410140911</v>
+        <v>176.918441014091</v>
       </c>
       <c r="R29" t="n">
-        <v>88.89294060868173</v>
+        <v>88.8929406086817</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,22 +36907,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>20.17020299213282</v>
+        <v>20.17020299213281</v>
       </c>
       <c r="J30" t="n">
-        <v>79.11572969663904</v>
+        <v>79.11572969663902</v>
       </c>
       <c r="K30" t="n">
         <v>148.0498268719028</v>
       </c>
       <c r="L30" t="n">
-        <v>206.6747101245329</v>
+        <v>484.5569513644205</v>
       </c>
       <c r="M30" t="n">
-        <v>522.2391434540579</v>
+        <v>244.3569022141704</v>
       </c>
       <c r="N30" t="n">
-        <v>253.1893576614563</v>
+        <v>253.1893576614562</v>
       </c>
       <c r="O30" t="n">
         <v>227.9716090983483</v>
@@ -36934,7 +36934,7 @@
         <v>111.9936918836372</v>
       </c>
       <c r="R30" t="n">
-        <v>41.86411250262431</v>
+        <v>41.86411250262429</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,25 +36989,25 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>41.92866108825869</v>
+        <v>120.6374657834313</v>
       </c>
       <c r="K31" t="n">
-        <v>226.8930961539885</v>
+        <v>331.6299583800179</v>
       </c>
       <c r="L31" t="n">
-        <v>109.6480178846915</v>
+        <v>230.3644431332055</v>
       </c>
       <c r="M31" t="n">
-        <v>116.1432802544914</v>
+        <v>529.9500036556723</v>
       </c>
       <c r="N31" t="n">
-        <v>516.7248554729308</v>
+        <v>114.6713980568902</v>
       </c>
       <c r="O31" t="n">
         <v>484.1008763647911</v>
       </c>
       <c r="P31" t="n">
-        <v>400.5643001647396</v>
+        <v>84.64894200988336</v>
       </c>
       <c r="Q31" t="n">
         <v>202.3848058789723</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>41.50950820381821</v>
+        <v>41.5095082038182</v>
       </c>
       <c r="J32" t="n">
-        <v>138.021261329005</v>
+        <v>138.0212613290049</v>
       </c>
       <c r="K32" t="n">
-        <v>215.1863845474678</v>
+        <v>215.1863845474677</v>
       </c>
       <c r="L32" t="n">
         <v>273.0148454885381</v>
       </c>
       <c r="M32" t="n">
-        <v>308.9798861821174</v>
+        <v>308.9798861821172</v>
       </c>
       <c r="N32" t="n">
-        <v>314.7368208009489</v>
+        <v>314.7368208009487</v>
       </c>
       <c r="O32" t="n">
         <v>295.0081863577507</v>
       </c>
       <c r="P32" t="n">
-        <v>246.1196187304456</v>
+        <v>246.1196187304455</v>
       </c>
       <c r="Q32" t="n">
-        <v>176.9184410140905</v>
+        <v>176.918441014091</v>
       </c>
       <c r="R32" t="n">
-        <v>88.89294060868173</v>
+        <v>88.8929406086817</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>20.17020299213282</v>
+        <v>20.17020299213281</v>
       </c>
       <c r="J33" t="n">
-        <v>79.11572969663904</v>
+        <v>79.11572969663902</v>
       </c>
       <c r="K33" t="n">
         <v>148.0498268719028</v>
       </c>
       <c r="L33" t="n">
-        <v>206.6747101245329</v>
+        <v>206.6747101245328</v>
       </c>
       <c r="M33" t="n">
         <v>244.3569022141704</v>
       </c>
       <c r="N33" t="n">
-        <v>253.1893576614563</v>
+        <v>253.1893576614562</v>
       </c>
       <c r="O33" t="n">
-        <v>227.9716090983483</v>
+        <v>505.8538503382359</v>
       </c>
       <c r="P33" t="n">
         <v>179.7939578006463</v>
       </c>
       <c r="Q33" t="n">
-        <v>389.8759331235245</v>
+        <v>111.9936918836372</v>
       </c>
       <c r="R33" t="n">
-        <v>41.86411250262431</v>
+        <v>41.86411250262429</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,25 +37226,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>41.92866108825869</v>
+        <v>120.6374657834313</v>
       </c>
       <c r="K34" t="n">
-        <v>150.864386716467</v>
+        <v>331.6299583800179</v>
       </c>
       <c r="L34" t="n">
-        <v>489.8388194919289</v>
+        <v>109.6480178846915</v>
       </c>
       <c r="M34" t="n">
-        <v>529.9500036556723</v>
+        <v>116.1432802544913</v>
       </c>
       <c r="N34" t="n">
-        <v>114.6713980568902</v>
+        <v>516.7248554729308</v>
       </c>
       <c r="O34" t="n">
         <v>484.1008763647911</v>
       </c>
       <c r="P34" t="n">
-        <v>84.64894200988337</v>
+        <v>217.1186332435375</v>
       </c>
       <c r="Q34" t="n">
         <v>202.3848058789723</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>41.50950820381821</v>
+        <v>41.5095082038182</v>
       </c>
       <c r="J35" t="n">
-        <v>138.021261329005</v>
+        <v>138.0212613290049</v>
       </c>
       <c r="K35" t="n">
-        <v>215.1863845474678</v>
+        <v>215.1863845474677</v>
       </c>
       <c r="L35" t="n">
         <v>273.0148454885381</v>
       </c>
       <c r="M35" t="n">
-        <v>308.9798861821174</v>
+        <v>308.9798861821172</v>
       </c>
       <c r="N35" t="n">
-        <v>314.7368208009489</v>
+        <v>314.7368208009487</v>
       </c>
       <c r="O35" t="n">
         <v>295.0081863577507</v>
       </c>
       <c r="P35" t="n">
-        <v>246.1196187304456</v>
+        <v>246.1196187304455</v>
       </c>
       <c r="Q35" t="n">
-        <v>176.9184410140911</v>
+        <v>176.918441014091</v>
       </c>
       <c r="R35" t="n">
-        <v>88.89294060868173</v>
+        <v>88.8929406086817</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,22 +37381,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>20.17020299213282</v>
+        <v>20.17020299213281</v>
       </c>
       <c r="J36" t="n">
-        <v>79.11572969663904</v>
+        <v>79.11572969663902</v>
       </c>
       <c r="K36" t="n">
-        <v>148.0498268719028</v>
+        <v>425.9320681117904</v>
       </c>
       <c r="L36" t="n">
-        <v>206.6747101245329</v>
+        <v>206.6747101245328</v>
       </c>
       <c r="M36" t="n">
         <v>244.3569022141704</v>
       </c>
       <c r="N36" t="n">
-        <v>253.1893576614563</v>
+        <v>253.1893576614562</v>
       </c>
       <c r="O36" t="n">
         <v>227.9716090983483</v>
@@ -37405,10 +37405,10 @@
         <v>179.7939578006463</v>
       </c>
       <c r="Q36" t="n">
-        <v>389.8759331235245</v>
+        <v>111.9936918836372</v>
       </c>
       <c r="R36" t="n">
-        <v>41.86411250262431</v>
+        <v>41.86411250262429</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>41.92866108825869</v>
+        <v>41.92866108825868</v>
       </c>
       <c r="K37" t="n">
-        <v>81.84954513353101</v>
+        <v>129.001730907664</v>
       </c>
       <c r="L37" t="n">
-        <v>489.8388194919289</v>
+        <v>109.6480178846915</v>
       </c>
       <c r="M37" t="n">
-        <v>415.4160515678151</v>
+        <v>529.9500036556723</v>
       </c>
       <c r="N37" t="n">
         <v>516.7248554729308</v>
       </c>
       <c r="O37" t="n">
-        <v>102.5833770686262</v>
+        <v>484.1008763647911</v>
       </c>
       <c r="P37" t="n">
-        <v>400.5643001647396</v>
+        <v>84.64894200988336</v>
       </c>
       <c r="Q37" t="n">
-        <v>49.48228327503389</v>
+        <v>202.3848058789723</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>41.50950820381821</v>
+        <v>41.5095082038182</v>
       </c>
       <c r="J38" t="n">
-        <v>138.021261329005</v>
+        <v>138.0212613290049</v>
       </c>
       <c r="K38" t="n">
-        <v>215.1863845474678</v>
+        <v>215.1863845474677</v>
       </c>
       <c r="L38" t="n">
         <v>273.0148454885381</v>
       </c>
       <c r="M38" t="n">
-        <v>308.9798861821174</v>
+        <v>308.9798861821172</v>
       </c>
       <c r="N38" t="n">
-        <v>314.7368208009489</v>
+        <v>314.7368208009487</v>
       </c>
       <c r="O38" t="n">
         <v>295.0081863577507</v>
       </c>
       <c r="P38" t="n">
-        <v>246.1196187304456</v>
+        <v>246.1196187304455</v>
       </c>
       <c r="Q38" t="n">
-        <v>176.9184410140911</v>
+        <v>176.918441014091</v>
       </c>
       <c r="R38" t="n">
-        <v>88.89294060868173</v>
+        <v>88.8929406086817</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,22 +37618,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>20.17020299213282</v>
+        <v>43.86445131982154</v>
       </c>
       <c r="J39" t="n">
-        <v>79.11572969663904</v>
+        <v>79.11572969663902</v>
       </c>
       <c r="K39" t="n">
-        <v>425.9320681117903</v>
+        <v>148.0498268719028</v>
       </c>
       <c r="L39" t="n">
-        <v>206.6747101245329</v>
+        <v>206.6747101245328</v>
       </c>
       <c r="M39" t="n">
         <v>244.3569022141704</v>
       </c>
       <c r="N39" t="n">
-        <v>253.1893576614563</v>
+        <v>507.3773505736552</v>
       </c>
       <c r="O39" t="n">
         <v>227.9716090983483</v>
@@ -37645,7 +37645,7 @@
         <v>111.9936918836372</v>
       </c>
       <c r="R39" t="n">
-        <v>41.86411250262431</v>
+        <v>41.86411250262429</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37703,25 +37703,25 @@
         <v>120.6374657834313</v>
       </c>
       <c r="K40" t="n">
-        <v>81.84954513353101</v>
+        <v>331.6299583800179</v>
       </c>
       <c r="L40" t="n">
-        <v>164.229498224836</v>
+        <v>109.6480178846915</v>
       </c>
       <c r="M40" t="n">
-        <v>529.9500036556723</v>
+        <v>116.1432802544913</v>
       </c>
       <c r="N40" t="n">
-        <v>114.6713980568902</v>
+        <v>516.7248554729308</v>
       </c>
       <c r="O40" t="n">
-        <v>484.1008763647911</v>
+        <v>453.5577320475278</v>
       </c>
       <c r="P40" t="n">
-        <v>400.5643001647396</v>
+        <v>400.5643001647395</v>
       </c>
       <c r="Q40" t="n">
-        <v>202.3848058789723</v>
+        <v>49.48228327503386</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>41.50950820381823</v>
+        <v>41.5095082038182</v>
       </c>
       <c r="J41" t="n">
-        <v>138.021261329005</v>
+        <v>138.0212613290049</v>
       </c>
       <c r="K41" t="n">
-        <v>215.1863845474678</v>
+        <v>215.1863845474676</v>
       </c>
       <c r="L41" t="n">
-        <v>273.0148454885382</v>
+        <v>273.0148454885386</v>
       </c>
       <c r="M41" t="n">
-        <v>308.9798861821174</v>
+        <v>308.9798861821172</v>
       </c>
       <c r="N41" t="n">
-        <v>314.7368208009489</v>
+        <v>314.7368208009487</v>
       </c>
       <c r="O41" t="n">
-        <v>295.0081863577508</v>
+        <v>295.0081863577506</v>
       </c>
       <c r="P41" t="n">
-        <v>246.1196187304456</v>
+        <v>246.1196187304454</v>
       </c>
       <c r="Q41" t="n">
-        <v>176.9184410140911</v>
+        <v>176.918441014091</v>
       </c>
       <c r="R41" t="n">
-        <v>88.89294060868173</v>
+        <v>88.89294060868167</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>20.17020299213282</v>
+        <v>20.17020299213281</v>
       </c>
       <c r="J42" t="n">
-        <v>79.11572969663905</v>
+        <v>79.11572969663901</v>
       </c>
       <c r="K42" t="n">
-        <v>148.0498268719029</v>
+        <v>148.0498268719028</v>
       </c>
       <c r="L42" t="n">
-        <v>207.7963053702039</v>
+        <v>206.6747101245328</v>
       </c>
       <c r="M42" t="n">
-        <v>244.3569022141704</v>
+        <v>244.3569022141703</v>
       </c>
       <c r="N42" t="n">
-        <v>529.9500036556725</v>
+        <v>253.1893576614562</v>
       </c>
       <c r="O42" t="n">
-        <v>227.9716090983484</v>
+        <v>227.9716090983482</v>
       </c>
       <c r="P42" t="n">
-        <v>179.7939578006464</v>
+        <v>457.676199040534</v>
       </c>
       <c r="Q42" t="n">
-        <v>111.9936918836373</v>
+        <v>111.9936918836372</v>
       </c>
       <c r="R42" t="n">
-        <v>41.86411250262431</v>
+        <v>41.86411250262428</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>41.92866108825871</v>
+        <v>41.92866108825868</v>
       </c>
       <c r="K43" t="n">
-        <v>81.84954513353102</v>
+        <v>281.9042535116025</v>
       </c>
       <c r="L43" t="n">
-        <v>242.9383029200093</v>
+        <v>109.6480178846915</v>
       </c>
       <c r="M43" t="n">
-        <v>529.9500036556725</v>
+        <v>529.9500036556723</v>
       </c>
       <c r="N43" t="n">
-        <v>114.6713980568903</v>
+        <v>516.7248554729308</v>
       </c>
       <c r="O43" t="n">
         <v>484.1008763647911</v>
       </c>
       <c r="P43" t="n">
-        <v>400.5643001647396</v>
+        <v>84.64894200988334</v>
       </c>
       <c r="Q43" t="n">
-        <v>202.3848058789723</v>
+        <v>49.48228327503386</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>41.50950820381823</v>
+        <v>41.5095082038182</v>
       </c>
       <c r="J44" t="n">
-        <v>138.021261329005</v>
+        <v>138.0212613290049</v>
       </c>
       <c r="K44" t="n">
-        <v>215.1863845474678</v>
+        <v>215.1863845474676</v>
       </c>
       <c r="L44" t="n">
-        <v>273.0148454885387</v>
+        <v>273.014845488538</v>
       </c>
       <c r="M44" t="n">
-        <v>308.9798861821174</v>
+        <v>308.9798861821172</v>
       </c>
       <c r="N44" t="n">
-        <v>314.7368208009489</v>
+        <v>314.7368208009487</v>
       </c>
       <c r="O44" t="n">
-        <v>295.0081863577508</v>
+        <v>295.0081863577506</v>
       </c>
       <c r="P44" t="n">
-        <v>246.1196187304456</v>
+        <v>246.1196187304454</v>
       </c>
       <c r="Q44" t="n">
-        <v>176.9184410140911</v>
+        <v>176.918441014091</v>
       </c>
       <c r="R44" t="n">
-        <v>88.89294060868173</v>
+        <v>88.89294060868167</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>20.17020299213282</v>
+        <v>20.17020299213281</v>
       </c>
       <c r="J45" t="n">
-        <v>79.11572969663905</v>
+        <v>79.11572969663901</v>
       </c>
       <c r="K45" t="n">
-        <v>148.0498268719029</v>
+        <v>148.0498268719028</v>
       </c>
       <c r="L45" t="n">
-        <v>206.6747101245329</v>
+        <v>206.6747101245328</v>
       </c>
       <c r="M45" t="n">
-        <v>244.3569022141704</v>
+        <v>244.3569022141703</v>
       </c>
       <c r="N45" t="n">
-        <v>253.1893576614563</v>
+        <v>253.1893576614562</v>
       </c>
       <c r="O45" t="n">
-        <v>505.8538503382358</v>
+        <v>227.9716090983482</v>
       </c>
       <c r="P45" t="n">
-        <v>179.7939578006464</v>
+        <v>179.7939578006463</v>
       </c>
       <c r="Q45" t="n">
-        <v>111.9936918836373</v>
+        <v>389.8759331235249</v>
       </c>
       <c r="R45" t="n">
-        <v>41.86411250262431</v>
+        <v>41.86411250262428</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38177,25 +38177,25 @@
         <v>120.6374657834313</v>
       </c>
       <c r="K46" t="n">
-        <v>81.84954513353102</v>
+        <v>81.84954513353098</v>
       </c>
       <c r="L46" t="n">
-        <v>489.8388194919289</v>
+        <v>489.8388194919288</v>
       </c>
       <c r="M46" t="n">
-        <v>529.9500036556725</v>
+        <v>529.9500036556723</v>
       </c>
       <c r="N46" t="n">
-        <v>114.6713980568903</v>
+        <v>516.7248554729308</v>
       </c>
       <c r="O46" t="n">
-        <v>158.4915550976991</v>
+        <v>225.2559784404529</v>
       </c>
       <c r="P46" t="n">
-        <v>400.5643001647396</v>
+        <v>84.64894200988334</v>
       </c>
       <c r="Q46" t="n">
-        <v>202.3848058789723</v>
+        <v>49.48228327503386</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
